--- a/workshops/202204_inaugural/model-experiments/steadyState.xlsx
+++ b/workshops/202204_inaugural/model-experiments/steadyState.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35518" uniqueCount="29894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36231" uniqueCount="30494">
   <si>
     <t>Row</t>
   </si>
@@ -47989,6 +47989,1806 @@
   </si>
   <si>
     <t>Shock to inverse velocity of new loans, hh</t>
+  </si>
+  <si>
+    <t>Shock to new loans, hh</t>
+  </si>
+  <si>
+    <t>Shock to gross loans to GDP ratio trend, hh</t>
+  </si>
+  <si>
+    <t>Shocks to Credit Events Impact, Total</t>
+  </si>
+  <si>
+    <t>Shock to credit events, hh</t>
+  </si>
+  <si>
+    <t>Shock to return on other net assets</t>
+  </si>
+  <si>
+    <t>Shock to autonomous profit margins</t>
+  </si>
+  <si>
+    <t>Shock to Stock Lending Rate, hh</t>
+  </si>
+  <si>
+    <t>Shock to New Lending Rate, hh</t>
+  </si>
+  <si>
+    <t>Shock to stock funding rate, lcy</t>
+  </si>
+  <si>
+    <t>Shock to new funding rate, lcy</t>
+  </si>
+  <si>
+    <t>Shock to stock funding rate, fcy</t>
+  </si>
+  <si>
+    <t>Shock to new funding rate, fcy</t>
+  </si>
+  <si>
+    <t>Shock to Exchange rate exposure switch, hh</t>
+  </si>
+  <si>
+    <t>Shock to write-off(Privat effect), hh</t>
+  </si>
+  <si>
+    <t>Shock to fixed (legacy) effect in prudential provisions, hh</t>
+  </si>
+  <si>
+    <t>S/S Real short-term rate, foreign currency</t>
+  </si>
+  <si>
+    <t>S/S Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign demand gap</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in real foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Autoregression in foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>S/S Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Real short-term rate</t>
+  </si>
+  <si>
+    <t>S/S Real exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>S/S Discount rate in future income proxy</t>
+  </si>
+  <si>
+    <t>Autoregression in GDP Gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to future income proxy</t>
+  </si>
+  <si>
+    <t>Response i nGDP gap to real short-term rate</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to new lending conditions</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Response in GDP gap to foreign demand</t>
+  </si>
+  <si>
+    <t>Sensitivity of discount rate in future income proxy to lending conditions</t>
+  </si>
+  <si>
+    <t>Autoregression in real GDP trend</t>
+  </si>
+  <si>
+    <t>Hysteresis in real GDP trend</t>
+  </si>
+  <si>
+    <t>Autoregression in CPI inflation</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap</t>
+  </si>
+  <si>
+    <t>Response in CPI inflation to RER gap change</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in inflation expectations</t>
+  </si>
+  <si>
+    <t>Autoregression in short-term rate</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to inflation</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to GDP gap</t>
+  </si>
+  <si>
+    <t>Response in short-term rate to FX gap</t>
+  </si>
+  <si>
+    <t>Autoregression in real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Weight on model-consistent expectations in exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Response in interest disparity to lending conditions</t>
+  </si>
+  <si>
+    <t>Autoregression in autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Autoregression in real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Response in real exchange rate trend to real exchange rate gap</t>
+  </si>
+  <si>
+    <t>floor to the policy rate</t>
+  </si>
+  <si>
+    <t>S/S Average Effective Risk Weight</t>
+  </si>
+  <si>
+    <t>S/S Minimum Regulatory CAR</t>
+  </si>
+  <si>
+    <t>S/S Comfort Level of CAR Buffers</t>
+  </si>
+  <si>
+    <t>S/S Open Net Foreign Position</t>
+  </si>
+  <si>
+    <t>S/S Share of Other Net Assets in Total Net Assets</t>
+  </si>
+  <si>
+    <t>S/s Regulatory bank capital</t>
+  </si>
+  <si>
+    <t>Add-hoc reaction to capital buffer</t>
+  </si>
+  <si>
+    <t>Autoregression in average effective risk weight</t>
+  </si>
+  <si>
+    <t>Autoregression in minimum regulatory CAR</t>
+  </si>
+  <si>
+    <t>Other profit and loss to total net assets ratio</t>
+  </si>
+  <si>
+    <t>Autoregression in other net assets</t>
+  </si>
+  <si>
+    <t>Autoregression in regulatory to financial bank capital ratio</t>
+  </si>
+  <si>
+    <t>Capital adequacy stress function parameter</t>
+  </si>
+  <si>
+    <t>Floor on return on bank capital</t>
+  </si>
+  <si>
+    <t>Transactions in assets relative to GDP</t>
+  </si>
+  <si>
+    <t>S/S Gross loans to GDP ratio</t>
+  </si>
+  <si>
+    <t>Autoregression in inverse velocity of new loans, hh</t>
+  </si>
+  <si>
+    <t>Response in inverse velocity to loans to GDP ratio, hh</t>
+  </si>
+  <si>
+    <t>Response in inverse velocity to lending conditions, hh</t>
+  </si>
+  <si>
+    <t>Autoregression AR1 in gross loans to GDP ratio trend, hh</t>
+  </si>
+  <si>
+    <t>Autoregression AR2 in gross loans to GDP ratio trend, hh</t>
+  </si>
+  <si>
+    <t>S/S Portfolio default rate, hh</t>
+  </si>
+  <si>
+    <t>Credit risk function, Scale, hh</t>
+  </si>
+  <si>
+    <t>Credit risk function, Shape, hh</t>
+  </si>
+  <si>
+    <t>Credit risk function, Lower bound, hh</t>
+  </si>
+  <si>
+    <t>Credit risk function, Upper bound, hh</t>
+  </si>
+  <si>
+    <t>Composition of macroeconomic conditions index</t>
+  </si>
+  <si>
+    <t>S/S Autonomous Profit Margin in Lending Rates, hh</t>
+  </si>
+  <si>
+    <t>Pass-through of actual rates to lending base rates</t>
+  </si>
+  <si>
+    <t>Duration Parameter for Interest Rate Fix, hh</t>
+  </si>
+  <si>
+    <t>Partial Risk Adjustment, hh</t>
+  </si>
+  <si>
+    <t>Elasticity of Profit Margin to CAR</t>
+  </si>
+  <si>
+    <t>Duration parameter for local currency funding rate, lcy</t>
+  </si>
+  <si>
+    <t>S/S Autonomous profit margin in funding rates, lcy</t>
+  </si>
+  <si>
+    <t>Duration parameter for local currency funding rate, fcy</t>
+  </si>
+  <si>
+    <t>S/S Autonomous profit margin in funding rates, fcy</t>
+  </si>
+  <si>
+    <t>Paydown factor, hh</t>
+  </si>
+  <si>
+    <t>Recovery factor, hh</t>
+  </si>
+  <si>
+    <t>Loss given nonperformance, hh</t>
+  </si>
+  <si>
+    <t>Write-off rate, hh</t>
+  </si>
+  <si>
+    <t>Autoregression in Exchange rate exposure switch, hh</t>
+  </si>
+  <si>
+    <t>S/S Exchange rate exposure switch, hh</t>
+  </si>
+  <si>
+    <t>Exchange rate exposure switch for new loans, hh</t>
+  </si>
+  <si>
+    <t>PD for performing loans, hh</t>
+  </si>
+  <si>
+    <t>PD for nonperforming loans, hh</t>
+  </si>
+  <si>
+    <t>LGD for performing loans, hh</t>
+  </si>
+  <si>
+    <t>LGD for nonperforming loans, hh</t>
+  </si>
+  <si>
+    <t>PD*LGD for perfomring loans, hh</t>
+  </si>
+  <si>
+    <t>PD*LGD for nonperfomring loans, hh</t>
+  </si>
+  <si>
+    <t>Autoregression in fixed (legacy) effect in prudential provisions, hh</t>
+  </si>
+  <si>
+    <t>Time trend</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>yw_gap</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>rrw_tnd</t>
+  </si>
+  <si>
+    <t>cpiw</t>
+  </si>
+  <si>
+    <t>roc_cpiw</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>bubble</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>roc_y</t>
+  </si>
+  <si>
+    <t>roc4_y</t>
+  </si>
+  <si>
+    <t>roc_ny</t>
+  </si>
+  <si>
+    <t>roc_py</t>
+  </si>
+  <si>
+    <t>y_gap</t>
+  </si>
+  <si>
+    <t>y_tnd</t>
+  </si>
+  <si>
+    <t>roc_y_tnd</t>
+  </si>
+  <si>
+    <t>fws_y</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi</t>
+  </si>
+  <si>
+    <t>roc4_cpi</t>
+  </si>
+  <si>
+    <t>roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr_gap</t>
+  </si>
+  <si>
+    <t>rr_tnd</t>
+  </si>
+  <si>
+    <t>r_tnd</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>roc_e</t>
+  </si>
+  <si>
+    <t>e_exp</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>re_tnd</t>
+  </si>
+  <si>
+    <t>roc_re_tnd</t>
+  </si>
+  <si>
+    <t>re_gap</t>
+  </si>
+  <si>
+    <t>roc_re_gap</t>
+  </si>
+  <si>
+    <t>roc_e_gap</t>
+  </si>
+  <si>
+    <t>prem</t>
+  </si>
+  <si>
+    <t>prem_tnd</t>
+  </si>
+  <si>
+    <t>prem_gap</t>
+  </si>
+  <si>
+    <t>r_uc</t>
+  </si>
+  <si>
+    <t>tna</t>
+  </si>
+  <si>
+    <t>bk</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>rbk</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>car_min</t>
+  </si>
+  <si>
+    <t>car_tar</t>
+  </si>
+  <si>
+    <t>riskw</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>ona</t>
+  </si>
+  <si>
+    <t>onfx</t>
+  </si>
+  <si>
+    <t>bg_to_bk</t>
+  </si>
+  <si>
+    <t>d_lcy</t>
+  </si>
+  <si>
+    <t>d0_lcy</t>
+  </si>
+  <si>
+    <t>new_l</t>
+  </si>
+  <si>
+    <t>l_to_4ny</t>
+  </si>
+  <si>
+    <t>l_to_4ny_tnd</t>
+  </si>
+  <si>
+    <t>new_l_to_ny</t>
+  </si>
+  <si>
+    <t>new_l_to_l</t>
+  </si>
+  <si>
+    <t>trn_hh</t>
+  </si>
+  <si>
+    <t>trn_avg_hh</t>
+  </si>
+  <si>
+    <t>ivy_hh</t>
+  </si>
+  <si>
+    <t>ivy_tnd_hh</t>
+  </si>
+  <si>
+    <t>new_l_hh</t>
+  </si>
+  <si>
+    <t>l_to_4ny_hh</t>
+  </si>
+  <si>
+    <t>new_l_to_ny_hh</t>
+  </si>
+  <si>
+    <t>new_l_to_l_hh</t>
+  </si>
+  <si>
+    <t>l_to_4ny_tnd_hh</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>q_hh</t>
+  </si>
+  <si>
+    <t>ss_slope_q_hh</t>
+  </si>
+  <si>
+    <t>z_hh</t>
+  </si>
+  <si>
+    <t>rp_lcy</t>
+  </si>
+  <si>
+    <t>rp_fcy</t>
+  </si>
+  <si>
+    <t>rona</t>
+  </si>
+  <si>
+    <t>new_rl_full_spread_gap</t>
+  </si>
+  <si>
+    <t>rl</t>
+  </si>
+  <si>
+    <t>rona_spread</t>
+  </si>
+  <si>
+    <t>rl_hh</t>
+  </si>
+  <si>
+    <t>new_rl_hh</t>
+  </si>
+  <si>
+    <t>new_rl_full_hh</t>
+  </si>
+  <si>
+    <t>cost_sr_ecl_hh</t>
+  </si>
+  <si>
+    <t>cost_bk_hh</t>
+  </si>
+  <si>
+    <t>rl_base_hh</t>
+  </si>
+  <si>
+    <t>new_rl_full_spread_hh</t>
+  </si>
+  <si>
+    <t>rl_apm_hh</t>
+  </si>
+  <si>
+    <t>new_rl_full_spread_gap_hh</t>
+  </si>
+  <si>
+    <t>new_rd_lcy</t>
+  </si>
+  <si>
+    <t>rd_lcy</t>
+  </si>
+  <si>
+    <t>new_rd_fcy</t>
+  </si>
+  <si>
+    <t>rd_fcy</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l0</t>
+  </si>
+  <si>
+    <t>ln0</t>
+  </si>
+  <si>
+    <t>ln0_rec</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>ln_rec</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>lp_rec</t>
+  </si>
+  <si>
+    <t>woff</t>
+  </si>
+  <si>
+    <t>ln_to_l</t>
+  </si>
+  <si>
+    <t>ln_rec_to_l</t>
+  </si>
+  <si>
+    <t>l_hh</t>
+  </si>
+  <si>
+    <t>l0_hh</t>
+  </si>
+  <si>
+    <t>lp_hh</t>
+  </si>
+  <si>
+    <t>lp0_hh</t>
+  </si>
+  <si>
+    <t>lp0_rec_hh</t>
+  </si>
+  <si>
+    <t>lp_rec_hh</t>
+  </si>
+  <si>
+    <t>new_ln_hh</t>
+  </si>
+  <si>
+    <t>new_lnc_hh</t>
+  </si>
+  <si>
+    <t>new_lnw_hh</t>
+  </si>
+  <si>
+    <t>ln_hh</t>
+  </si>
+  <si>
+    <t>ln_rec_hh</t>
+  </si>
+  <si>
+    <t>ln_to_ln_rec_hh</t>
+  </si>
+  <si>
+    <t>ln0_hh</t>
+  </si>
+  <si>
+    <t>ln0_rec_hh</t>
+  </si>
+  <si>
+    <t>lnc_hh</t>
+  </si>
+  <si>
+    <t>lnc0_hh</t>
+  </si>
+  <si>
+    <t>lnw_hh</t>
+  </si>
+  <si>
+    <t>lnw0_hh</t>
+  </si>
+  <si>
+    <t>lnc_to_ln_hh</t>
+  </si>
+  <si>
+    <t>woff_hh</t>
+  </si>
+  <si>
+    <t>woff_to_l_hh</t>
+  </si>
+  <si>
+    <t>ln_to_l_hh</t>
+  </si>
+  <si>
+    <t>ln_rec_to_l_hh</t>
+  </si>
+  <si>
+    <t>j_hh</t>
+  </si>
+  <si>
+    <t>sigma_hh</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>ap_to_l</t>
+  </si>
+  <si>
+    <t>ap_hh</t>
+  </si>
+  <si>
+    <t>ap_lp_hh</t>
+  </si>
+  <si>
+    <t>ap_ln_hh</t>
+  </si>
+  <si>
+    <t>ap_fe_hh</t>
+  </si>
+  <si>
+    <t>ap_to_l_hh</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>af_to_l</t>
+  </si>
+  <si>
+    <t>pvx_hh</t>
+  </si>
+  <si>
+    <t>af_hh</t>
+  </si>
+  <si>
+    <t>af_to_l_hh</t>
+  </si>
+  <si>
+    <t>tune_yw_gap</t>
+  </si>
+  <si>
+    <t>tune_rw</t>
+  </si>
+  <si>
+    <t>tune_rrw_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_yw_gap</t>
+  </si>
+  <si>
+    <t>shock_rw</t>
+  </si>
+  <si>
+    <t>shock_rrw_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_cpiw</t>
+  </si>
+  <si>
+    <t>shock_bubble</t>
+  </si>
+  <si>
+    <t>tune_y_gap</t>
+  </si>
+  <si>
+    <t>tune_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>tune_roc_cpi</t>
+  </si>
+  <si>
+    <t>tune_r</t>
+  </si>
+  <si>
+    <t>tune_prem_gap</t>
+  </si>
+  <si>
+    <t>tune_rr_tnd</t>
+  </si>
+  <si>
+    <t>shock_y_gap</t>
+  </si>
+  <si>
+    <t>shock_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_y_tnd</t>
+  </si>
+  <si>
+    <t>shock_roc_py</t>
+  </si>
+  <si>
+    <t>shock_roc_cpi</t>
+  </si>
+  <si>
+    <t>shock_r</t>
+  </si>
+  <si>
+    <t>shock_e</t>
+  </si>
+  <si>
+    <t>shock_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>shock_prem_gap</t>
+  </si>
+  <si>
+    <t>shock_rr_tnd</t>
+  </si>
+  <si>
+    <t>shock_rbk</t>
+  </si>
+  <si>
+    <t>shock_riskw</t>
+  </si>
+  <si>
+    <t>shock_onfx</t>
+  </si>
+  <si>
+    <t>shock_car_min</t>
+  </si>
+  <si>
+    <t>shock_ona</t>
+  </si>
+  <si>
+    <t>shock_bg_to_bk</t>
+  </si>
+  <si>
+    <t>shock_new_l</t>
+  </si>
+  <si>
+    <t>shock_ivy_hh</t>
+  </si>
+  <si>
+    <t>shock_ivy_tnd_hh</t>
+  </si>
+  <si>
+    <t>shock_new_l_hh</t>
+  </si>
+  <si>
+    <t>shock_l_to_4ny_tnd_hh</t>
+  </si>
+  <si>
+    <t>shock_q</t>
+  </si>
+  <si>
+    <t>shock_q_hh</t>
+  </si>
+  <si>
+    <t>shock_rona</t>
+  </si>
+  <si>
+    <t>shock_rl_apm</t>
+  </si>
+  <si>
+    <t>shock_rona_spread</t>
+  </si>
+  <si>
+    <t>shock_rl_hh</t>
+  </si>
+  <si>
+    <t>shock_new_rl_hh</t>
+  </si>
+  <si>
+    <t>shock_new_rl_full_hh</t>
+  </si>
+  <si>
+    <t>shock_new_rl_full1_hh</t>
+  </si>
+  <si>
+    <t>shock_new_rl_full2_hh</t>
+  </si>
+  <si>
+    <t>shock_rl_apm_hh</t>
+  </si>
+  <si>
+    <t>shock_rd_lcy</t>
+  </si>
+  <si>
+    <t>shock_new_rd_lcy</t>
+  </si>
+  <si>
+    <t>shock_rd_fcy</t>
+  </si>
+  <si>
+    <t>shock_new_rd_fcy</t>
+  </si>
+  <si>
+    <t>shock_sigma_hh</t>
+  </si>
+  <si>
+    <t>shock_woff_hh</t>
+  </si>
+  <si>
+    <t>shock_ap_fe_hh</t>
+  </si>
+  <si>
+    <t>ss_rrw</t>
+  </si>
+  <si>
+    <t>ss_roc_cpiw</t>
+  </si>
+  <si>
+    <t>c0_yw_gap</t>
+  </si>
+  <si>
+    <t>c0_rw</t>
+  </si>
+  <si>
+    <t>c0_rrw_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpiw</t>
+  </si>
+  <si>
+    <t>c0_bubble</t>
+  </si>
+  <si>
+    <t>ss_roc_y</t>
+  </si>
+  <si>
+    <t>ss_roc_cpi</t>
+  </si>
+  <si>
+    <t>ss_rr</t>
+  </si>
+  <si>
+    <t>ss_roc_re</t>
+  </si>
+  <si>
+    <t>ss_disc_fws_y</t>
+  </si>
+  <si>
+    <t>c0_y_gap</t>
+  </si>
+  <si>
+    <t>c1_y_gap</t>
+  </si>
+  <si>
+    <t>c2_y_gap</t>
+  </si>
+  <si>
+    <t>c3_y_gap</t>
+  </si>
+  <si>
+    <t>c4_y_gap</t>
+  </si>
+  <si>
+    <t>c5_y_gap</t>
+  </si>
+  <si>
+    <t>c1_fws_y</t>
+  </si>
+  <si>
+    <t>c0_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_y_tnd</t>
+  </si>
+  <si>
+    <t>c0_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi</t>
+  </si>
+  <si>
+    <t>c2_roc_cpi</t>
+  </si>
+  <si>
+    <t>c3_roc_cpi</t>
+  </si>
+  <si>
+    <t>c1_roc_cpi_exp</t>
+  </si>
+  <si>
+    <t>c0_r</t>
+  </si>
+  <si>
+    <t>c1_r</t>
+  </si>
+  <si>
+    <t>c2_r</t>
+  </si>
+  <si>
+    <t>c3_r</t>
+  </si>
+  <si>
+    <t>c0_rr_tnd</t>
+  </si>
+  <si>
+    <t>c1_e_exp</t>
+  </si>
+  <si>
+    <t>c1_prem</t>
+  </si>
+  <si>
+    <t>c0_prem_gap</t>
+  </si>
+  <si>
+    <t>c0_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>c1_roc_re_tnd</t>
+  </si>
+  <si>
+    <t>r_floor</t>
+  </si>
+  <si>
+    <t>ss_riskw</t>
+  </si>
+  <si>
+    <t>ss_car_min</t>
+  </si>
+  <si>
+    <t>ss_car_exc</t>
+  </si>
+  <si>
+    <t>ss_onfx</t>
+  </si>
+  <si>
+    <t>ss_ona_to_tna</t>
+  </si>
+  <si>
+    <t>ss_bg_to_bk</t>
+  </si>
+  <si>
+    <t>c1_bk</t>
+  </si>
+  <si>
+    <t>c0_riskw</t>
+  </si>
+  <si>
+    <t>c0_car_min</t>
+  </si>
+  <si>
+    <t>c1_rbk_other</t>
+  </si>
+  <si>
+    <t>c0_ona</t>
+  </si>
+  <si>
+    <t>c0_bg_to_bk</t>
+  </si>
+  <si>
+    <t>c1_rx</t>
+  </si>
+  <si>
+    <t>c2_rx</t>
+  </si>
+  <si>
+    <t>c3_rx</t>
+  </si>
+  <si>
+    <t>c4_rx</t>
+  </si>
+  <si>
+    <t>c5_rx</t>
+  </si>
+  <si>
+    <t>floor_rbk</t>
+  </si>
+  <si>
+    <t>c0_ivy_tnd_hh</t>
+  </si>
+  <si>
+    <t>c1_trn_hh</t>
+  </si>
+  <si>
+    <t>ss_l_to_4ny_hh</t>
+  </si>
+  <si>
+    <t>c0_ivy_hh</t>
+  </si>
+  <si>
+    <t>c1_ivy_hh</t>
+  </si>
+  <si>
+    <t>c2_ivy_hh</t>
+  </si>
+  <si>
+    <t>c0_l_to_4ny_tnd_hh</t>
+  </si>
+  <si>
+    <t>c1_l_to_4ny_tnd_hh</t>
+  </si>
+  <si>
+    <t>ss_q_hh</t>
+  </si>
+  <si>
+    <t>c2_q_hh</t>
+  </si>
+  <si>
+    <t>c3_q_hh</t>
+  </si>
+  <si>
+    <t>c4_q_hh</t>
+  </si>
+  <si>
+    <t>c5_q_hh</t>
+  </si>
+  <si>
+    <t>c1_z_hh</t>
+  </si>
+  <si>
+    <t>ss_rona_spread</t>
+  </si>
+  <si>
+    <t>ss_rl_apm_hh</t>
+  </si>
+  <si>
+    <t>c1_rl_base_hh</t>
+  </si>
+  <si>
+    <t>psi_rl_hh</t>
+  </si>
+  <si>
+    <t>c1_new_rl_hh</t>
+  </si>
+  <si>
+    <t>c_rl_apm_hh</t>
+  </si>
+  <si>
+    <t>c0_rl_apm_hh</t>
+  </si>
+  <si>
+    <t>psi_rd_lcy</t>
+  </si>
+  <si>
+    <t>ss_rd_apm_lcy</t>
+  </si>
+  <si>
+    <t>psi_rd_fcy</t>
+  </si>
+  <si>
+    <t>ss_rd_apm_fcy</t>
+  </si>
+  <si>
+    <t>theta_lp_hh</t>
+  </si>
+  <si>
+    <t>theta_ln_hh</t>
+  </si>
+  <si>
+    <t>lambda_hh</t>
+  </si>
+  <si>
+    <t>omega_hh</t>
+  </si>
+  <si>
+    <t>c0_sigma_hh</t>
+  </si>
+  <si>
+    <t>ss_sigma_hh</t>
+  </si>
+  <si>
+    <t>new_sigma_hh</t>
+  </si>
+  <si>
+    <t>pd_lp_hh</t>
+  </si>
+  <si>
+    <t>pd_ln_hh</t>
+  </si>
+  <si>
+    <t>lgd_lp_hh</t>
+  </si>
+  <si>
+    <t>lgd_ln_hh</t>
+  </si>
+  <si>
+    <t>gamma_lp_hh</t>
+  </si>
+  <si>
+    <t>gamma_ln_hh</t>
+  </si>
+  <si>
+    <t>c0_ap_fe_hh</t>
+  </si>
+  <si>
+    <t>c1_af_hh</t>
+  </si>
+  <si>
+    <t>ttrend</t>
+  </si>
+  <si>
+    <t>SteadyLevel</t>
+  </si>
+  <si>
+    <t>SteadyChange</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Rate/</t>
+  </si>
+  <si>
+    <t>Diff–</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Foreign demand gap</t>
+  </si>
+  <si>
+    <t>Foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign real short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Foreign CPI</t>
+  </si>
+  <si>
+    <t>Foreign CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
+  <si>
+    <t>Nominal GDP</t>
+  </si>
+  <si>
+    <t>GDP deflator</t>
+  </si>
+  <si>
+    <t>Real GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>Real GDP,  Four-quarter rate of change</t>
+  </si>
+  <si>
+    <t>Nominal GDP, Rate of change</t>
+  </si>
+  <si>
+    <t>GDP deflator, Rate of change</t>
+  </si>
+  <si>
+    <t>GDP gap</t>
+  </si>
+  <si>
+    <t>GDP trend (potential)</t>
+  </si>
+  <si>
+    <t>GDP trend (potential), Rate of change</t>
+  </si>
+  <si>
+    <t>Real future income proxy</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>CPI, Rate of change</t>
+  </si>
+  <si>
+    <t>CPI, Four-quarter rate of change</t>
+  </si>
+  <si>
+    <t>Inflation expectations</t>
+  </si>
+  <si>
+    <t>Short-term cash rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate</t>
+  </si>
+  <si>
+    <t>Real short-term rate gap</t>
+  </si>
+  <si>
+    <t>Real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Short-term cash rate trend</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate expectations</t>
+  </si>
+  <si>
+    <t>Real exchange rate</t>
+  </si>
+  <si>
+    <t>Real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap</t>
+  </si>
+  <si>
+    <t>Real exchange rate gap, Rate of change</t>
+  </si>
+  <si>
+    <t>Nominal exchange rate depreciation gap</t>
+  </si>
+  <si>
+    <t>Interest disparity</t>
+  </si>
+  <si>
+    <t>Interest disparity trend</t>
+  </si>
+  <si>
+    <t>Interest disparity gap</t>
+  </si>
+  <si>
+    <t>Short-term cash rate, unconstrained</t>
+  </si>
+  <si>
+    <t>Total net assets</t>
+  </si>
+  <si>
+    <t>Financial bank capital, closing</t>
+  </si>
+  <si>
+    <t>Regulatory capital</t>
+  </si>
+  <si>
+    <t>Return on bank capital</t>
+  </si>
+  <si>
+    <t>Standard capital adequacy ratio</t>
+  </si>
+  <si>
+    <t>Minimum regulatory car</t>
+  </si>
+  <si>
+    <t>Comfort level of standard capital adequacy ratio</t>
+  </si>
+  <si>
+    <t>Average effective risk weight</t>
+  </si>
+  <si>
+    <t>Capital adequacy risk surcharge</t>
+  </si>
+  <si>
+    <t>Non-equity liabilities</t>
+  </si>
+  <si>
+    <t>Other net assets</t>
+  </si>
+  <si>
+    <t>Open net foreign exchange position</t>
+  </si>
+  <si>
+    <t>Regulatory to financial bank capital ratio</t>
+  </si>
+  <si>
+    <t>Local currency non-equity liabilities</t>
+  </si>
+  <si>
+    <t>Local currency non-equity liabilities, opening after new information</t>
+  </si>
+  <si>
+    <t>New loans</t>
+  </si>
+  <si>
+    <t>Loans to GDP ratio</t>
+  </si>
+  <si>
+    <t>Loans to GDP ratio trend</t>
+  </si>
+  <si>
+    <t>New loans to GDP ratio</t>
+  </si>
+  <si>
+    <t>New loans to gross loans ratio</t>
+  </si>
+  <si>
+    <t>Transactions to be financed, hh</t>
+  </si>
+  <si>
+    <t>Average transactions to be financed, hh</t>
+  </si>
+  <si>
+    <t>Inverse velocity of new loans, hh</t>
+  </si>
+  <si>
+    <t>Inverse velocity of new loans trend, hh</t>
+  </si>
+  <si>
+    <t>New loans, hh</t>
+  </si>
+  <si>
+    <t>Loans to GDP ratio, hh</t>
+  </si>
+  <si>
+    <t>New loans to GDP ratio, hh</t>
+  </si>
+  <si>
+    <t>New loans to stock loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Loans to GDP ratio trend, hh</t>
+  </si>
+  <si>
+    <t>Average aggregate portfolio default rates</t>
+  </si>
+  <si>
+    <t>Credit events, hh</t>
+  </si>
+  <si>
+    <t>S/S Slope of credit risk function, hh</t>
+  </si>
+  <si>
+    <t>Macro conditions index, hh</t>
+  </si>
+  <si>
+    <t>Short-term funding liability rate, local currency</t>
+  </si>
+  <si>
+    <t>Short-term funding liability rate, foreign currency</t>
+  </si>
+  <si>
+    <t>Return on other net assets</t>
+  </si>
+  <si>
+    <t>Effective lending spread gap</t>
+  </si>
+  <si>
+    <t>Stock lending rate</t>
+  </si>
+  <si>
+    <t>Stock Lending Rate, hh</t>
+  </si>
+  <si>
+    <t>New Lending Rate w Partial Risk Adjustment, hh</t>
+  </si>
+  <si>
+    <t>New Lending Rate w Full Risk Adjustment, hh</t>
+  </si>
+  <si>
+    <t>Cost of short-term liability and expected credit loss</t>
+  </si>
+  <si>
+    <t>Cost of bank capital adequayc</t>
+  </si>
+  <si>
+    <t>Base rate for new lending rate, hh</t>
+  </si>
+  <si>
+    <t>Lending conditions spread</t>
+  </si>
+  <si>
+    <t>Autonomous Profit Margin in Lending Rates, hh</t>
+  </si>
+  <si>
+    <t>Lending conditions spread gap</t>
+  </si>
+  <si>
+    <t>New funding rates, &lt;lcy&gt;</t>
+  </si>
+  <si>
+    <t>Stock funding rates, &lt;lcy&gt;</t>
+  </si>
+  <si>
+    <t>New funding rates, &lt;fcy&gt;</t>
+  </si>
+  <si>
+    <t>Stock funding rates, &lt;fcy&gt;</t>
+  </si>
+  <si>
+    <t>Gross loans</t>
+  </si>
+  <si>
+    <t>Gross loans, Opening after new info</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Opening after new info</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized, Opening after new info</t>
+  </si>
+  <si>
+    <t>Nonperforming loans</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized</t>
+  </si>
+  <si>
+    <t>Performing loans</t>
+  </si>
+  <si>
+    <t>Performing loans recognized</t>
+  </si>
+  <si>
+    <t>Write-offs</t>
+  </si>
+  <si>
+    <t>Nonperforming loans to gross loans ratio</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized to gross loans ratio</t>
+  </si>
+  <si>
+    <t>Gross loans, hh</t>
+  </si>
+  <si>
+    <t>Gross loans, Opening after new info, hh</t>
+  </si>
+  <si>
+    <t>Performing loans, hh</t>
+  </si>
+  <si>
+    <t>Performing loans, Opening after new information, hh</t>
+  </si>
+  <si>
+    <t>Performing loans recognized, Opening after new info, hh</t>
+  </si>
+  <si>
+    <t>Performing loans recognized, hh</t>
+  </si>
+  <si>
+    <t>Inflow of newly nonperforming loans</t>
+  </si>
+  <si>
+    <t>Inflow of newly nonperforming loans, Recovery buffer</t>
+  </si>
+  <si>
+    <t>Inflow of newly nonperforming loans, Write-off buffer</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized to nonperforming loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Opening after new info, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized, Opening after new info, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Recovery Buffer, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Recovery Buffer, Opening after new information, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Write-off buffer, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans, Write-off buffer, Opening after new information, hh</t>
+  </si>
+  <si>
+    <t>Recovery buffer to nonperforming loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Write-offs, hh</t>
+  </si>
+  <si>
+    <t>Write-offs to gross loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans to gross loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Nonperforming loans recognized to gross loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Exchange Rate Valuation, hh</t>
+  </si>
+  <si>
+    <t>Exchange rate exposure switch, hh</t>
+  </si>
+  <si>
+    <t>Prudential provisions</t>
+  </si>
+  <si>
+    <t>Prudential provisions, hh</t>
+  </si>
+  <si>
+    <t>Prudential provisions for performing loans, hh</t>
+  </si>
+  <si>
+    <t>Prudential provisions for nonperforming loans, hh</t>
+  </si>
+  <si>
+    <t>Fixed (legacy) effect in prudential provisions as a fraction of provisions, hh</t>
+  </si>
+  <si>
+    <t>Allowances for expected credit losses, total</t>
+  </si>
+  <si>
+    <t>Allowances to gross loans ratio, total</t>
+  </si>
+  <si>
+    <t>Present value of expected cash flows from unit static pool</t>
+  </si>
+  <si>
+    <t>Allowances for expected credit losses, hh</t>
+  </si>
+  <si>
+    <t>Allowances to gross loans ratio, hh</t>
+  </si>
+  <si>
+    <t>Tune on foreign demand gap</t>
+  </si>
+  <si>
+    <t>Tune on foreign short-term rate</t>
+  </si>
+  <si>
+    <t>Tune on real foreign short-term rate trend</t>
+  </si>
+  <si>
+    <t>Tune on to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Shock to foreign demand gap</t>
+  </si>
+  <si>
+    <t>Shock to foreign short-term rate, FCY</t>
+  </si>
+  <si>
+    <t>Shock to real foreign short-term rate trend, FCY</t>
+  </si>
+  <si>
+    <t>Shock to foreign CPI inflation</t>
+  </si>
+  <si>
+    <t>Tunes on GDP gap</t>
+  </si>
+  <si>
+    <t>Tune on GDP trend growth</t>
+  </si>
+  <si>
+    <t>Tune on CPI</t>
+  </si>
+  <si>
+    <t>Tune on short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Tune on autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Tune on real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Shock to GDP gap</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend growth</t>
+  </si>
+  <si>
+    <t>Shock to GDP trend level</t>
+  </si>
+  <si>
+    <t>Shock to GDP deflator</t>
+  </si>
+  <si>
+    <t>Shock to CPI</t>
+  </si>
+  <si>
+    <t>Shock to short term cash rate, LCY</t>
+  </si>
+  <si>
+    <t>Shock to exchange rate</t>
+  </si>
+  <si>
+    <t>Shock to real exchange rate trend</t>
+  </si>
+  <si>
+    <t>Shock to autonomous cyclical component in interest disparity</t>
+  </si>
+  <si>
+    <t>Shock to real short-term rate trend</t>
+  </si>
+  <si>
+    <t>Shock to Return on Bank Capital</t>
+  </si>
+  <si>
+    <t>Shock to Regulatory Risk Weights</t>
+  </si>
+  <si>
+    <t>Shock to Open Net Foreign Exchange Position</t>
+  </si>
+  <si>
+    <t>Shock to minimum regulatory CAR</t>
+  </si>
+  <si>
+    <t>Shock to other net assets</t>
+  </si>
+  <si>
+    <t>Shock to regulatory to financial bank capital ratio</t>
+  </si>
+  <si>
+    <t>Shocks to new loans</t>
+  </si>
+  <si>
+    <t>Shock to inverse velocity of new loans, hh</t>
+  </si>
+  <si>
+    <t>Shock to trend in inverse velocity of new loans, hh</t>
   </si>
   <si>
     <t>Shock to new loans, hh</t>
@@ -89715,7 +91515,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89724,13 +91524,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89752,24 +91554,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29294</v>
+        <v>29894</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29585</v>
+        <v>30185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29586</v>
+        <v>30186</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29587</v>
+        <v>30187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29624</v>
+        <v>30224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29295</v>
+        <v>29895</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
@@ -89778,15 +91580,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29588</v>
+        <v>30188</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29625</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29296</v>
+        <v>29896</v>
       </c>
       <c r="B3" s="0">
         <v>0.0065959963370103569</v>
@@ -89795,15 +91597,15 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29589</v>
+        <v>30189</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29626</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29297</v>
+        <v>29897</v>
       </c>
       <c r="B4" s="0">
         <v>0.0016250000000000001</v>
@@ -89812,15 +91614,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29589</v>
+        <v>30189</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29627</v>
+        <v>30227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29298</v>
+        <v>29898</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -89829,15 +91631,15 @@
         <v>1.0049629315732038</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29628</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29299</v>
+        <v>29899</v>
       </c>
       <c r="B6" s="0">
         <v>1.0049629315732038</v>
@@ -89846,15 +91648,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>29629</v>
+        <v>30229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>29300</v>
+        <v>29900</v>
       </c>
       <c r="B7" s="0">
         <v>1</v>
@@ -89863,13 +91665,13 @@
         <v>1.0098534065489688</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29301</v>
+        <v>29901</v>
       </c>
       <c r="B8" s="0">
         <v>1</v>
@@ -89878,13 +91680,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29302</v>
+        <v>29902</v>
       </c>
       <c r="B9" s="0">
         <v>1</v>
@@ -89893,15 +91695,15 @@
         <v>1.0098534065489688</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29630</v>
+        <v>30230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29303</v>
+        <v>29903</v>
       </c>
       <c r="B10" s="0">
         <v>1</v>
@@ -89910,15 +91712,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29631</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>29304</v>
+        <v>29904</v>
       </c>
       <c r="B11" s="0">
         <v>1</v>
@@ -89927,15 +91729,15 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>29632</v>
+        <v>30232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>29305</v>
+        <v>29905</v>
       </c>
       <c r="B12" s="0">
         <v>1.0098534065489688</v>
@@ -89944,15 +91746,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29633</v>
+        <v>30233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>29306</v>
+        <v>29906</v>
       </c>
       <c r="B13" s="0">
         <v>1.0399999999999998</v>
@@ -89961,15 +91763,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29634</v>
+        <v>30234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29307</v>
+        <v>29907</v>
       </c>
       <c r="B14" s="0">
         <v>1.0222465642931018</v>
@@ -89978,15 +91780,15 @@
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>29635</v>
+        <v>30235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>29308</v>
+        <v>29908</v>
       </c>
       <c r="B15" s="0">
         <v>1.0122722344290394</v>
@@ -89995,15 +91797,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29636</v>
+        <v>30236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>29309</v>
+        <v>29909</v>
       </c>
       <c r="B16" s="0">
         <v>1</v>
@@ -90012,15 +91814,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29637</v>
+        <v>30237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29310</v>
+        <v>29910</v>
       </c>
       <c r="B17" s="0">
         <v>1</v>
@@ -90029,15 +91831,15 @@
         <v>1.0098534065489688</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29638</v>
+        <v>30238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>29311</v>
+        <v>29911</v>
       </c>
       <c r="B18" s="0">
         <v>1.0098534065489688</v>
@@ -90046,15 +91848,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29639</v>
+        <v>30239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>29312</v>
+        <v>29912</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -90063,15 +91865,15 @@
         <v>1.0098534065489688</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>29640</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29313</v>
+        <v>29913</v>
       </c>
       <c r="B20" s="0">
         <v>1</v>
@@ -90080,15 +91882,15 @@
         <v>1.0122722344290394</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29641</v>
+        <v>30241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29314</v>
+        <v>29914</v>
       </c>
       <c r="B21" s="0">
         <v>1.0122722344290394</v>
@@ -90097,15 +91899,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>29642</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>29315</v>
+        <v>29915</v>
       </c>
       <c r="B22" s="0">
         <v>1.0500000000000003</v>
@@ -90114,15 +91916,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>29643</v>
+        <v>30243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>29316</v>
+        <v>29916</v>
       </c>
       <c r="B23" s="0">
         <v>1.0122722344290394</v>
@@ -90131,15 +91933,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>29590</v>
+        <v>30190</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>29644</v>
+        <v>30244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>29317</v>
+        <v>29917</v>
       </c>
       <c r="B24" s="0">
         <v>0.019864276187257168</v>
@@ -90148,15 +91950,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>29591</v>
+        <v>30191</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>29645</v>
+        <v>30245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>29318</v>
+        <v>29918</v>
       </c>
       <c r="B25" s="0">
         <v>0.0074999999999999997</v>
@@ -90165,15 +91967,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>29591</v>
+        <v>30191</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>29646</v>
+        <v>30246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>29319</v>
+        <v>29919</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -90182,15 +91984,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>29591</v>
+        <v>30191</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>29647</v>
+        <v>30247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>29320</v>
+        <v>29920</v>
       </c>
       <c r="B27" s="0">
         <v>0.0074999999999999997</v>
@@ -90199,15 +92001,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>29591</v>
+        <v>30191</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>29648</v>
+        <v>30248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>29321</v>
+        <v>29921</v>
       </c>
       <c r="B28" s="0">
         <v>0.019864276187257168</v>
@@ -90216,15 +92018,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>29591</v>
+        <v>30191</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29649</v>
+        <v>30249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>29322</v>
+        <v>29922</v>
       </c>
       <c r="B29" s="0">
         <v>1</v>
@@ -90233,15 +92035,15 @@
         <v>1.0021986208188549</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29650</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29323</v>
+        <v>29923</v>
       </c>
       <c r="B30" s="0">
         <v>1.0021986208188551</v>
@@ -90250,15 +92052,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29651</v>
+        <v>30251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>29324</v>
+        <v>29924</v>
       </c>
       <c r="B31" s="0">
         <v>1.0021986208188549</v>
@@ -90267,15 +92069,15 @@
         <v>1.0021986208188549</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>29652</v>
+        <v>30252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>29325</v>
+        <v>29925</v>
       </c>
       <c r="B32" s="0">
         <v>1</v>
@@ -90284,15 +92086,15 @@
         <v>0.99496205639268809</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29653</v>
+        <v>30253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>29326</v>
+        <v>29926</v>
       </c>
       <c r="B33" s="0">
         <v>1</v>
@@ -90301,15 +92103,15 @@
         <v>0.99496205639268809</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29654</v>
+        <v>30254</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>29327</v>
+        <v>29927</v>
       </c>
       <c r="B34" s="0">
         <v>0.99496205639268809</v>
@@ -90318,15 +92120,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>29654</v>
+        <v>30254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>29328</v>
+        <v>29928</v>
       </c>
       <c r="B35" s="0">
         <v>1</v>
@@ -90335,15 +92137,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>29655</v>
+        <v>30255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>29329</v>
+        <v>29929</v>
       </c>
       <c r="B36" s="0">
         <v>1</v>
@@ -90352,15 +92154,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>29656</v>
+        <v>30256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>29330</v>
+        <v>29930</v>
       </c>
       <c r="B37" s="0">
         <v>1.0000000000000002</v>
@@ -90369,15 +92171,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>29592</v>
+        <v>30192</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>29657</v>
+        <v>30257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>29331</v>
+        <v>29931</v>
       </c>
       <c r="B38" s="0">
         <v>0.010958621136112567</v>
@@ -90386,15 +92188,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>29593</v>
+        <v>30193</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>29658</v>
+        <v>30258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>29332</v>
+        <v>29932</v>
       </c>
       <c r="B39" s="0">
         <v>0.010958621136112567</v>
@@ -90403,15 +92205,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>29593</v>
+        <v>30193</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>29659</v>
+        <v>30259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>29333</v>
+        <v>29933</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -90420,15 +92222,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>29593</v>
+        <v>30193</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>29660</v>
+        <v>30260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>29334</v>
+        <v>29934</v>
       </c>
       <c r="B41" s="0">
         <v>0.019864276187257168</v>
@@ -90437,15 +92239,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>29594</v>
+        <v>30194</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>29661</v>
+        <v>30261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>29335</v>
+        <v>29935</v>
       </c>
       <c r="B42" s="0">
         <v>6.64103638988695</v>
@@ -90454,15 +92256,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>29594</v>
+        <v>30194</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>29662</v>
+        <v>30262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>29336</v>
+        <v>29936</v>
       </c>
       <c r="B43" s="0">
         <v>0.43166736534265171</v>
@@ -90471,15 +92273,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>29594</v>
+        <v>30194</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>29663</v>
+        <v>30263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>29337</v>
+        <v>29937</v>
       </c>
       <c r="B44" s="0">
         <v>0.34533389227412137</v>
@@ -90488,15 +92290,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>29594</v>
+        <v>30194</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>29664</v>
+        <v>30264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>29338</v>
+        <v>29938</v>
       </c>
       <c r="B45" s="0">
         <v>0.0064890109401818385</v>
@@ -90505,15 +92307,15 @@
         <v>2.0323479175344652e-16</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>29665</v>
+        <v>30265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>29339</v>
+        <v>29939</v>
       </c>
       <c r="B46" s="0">
         <v>0.13</v>
@@ -90522,15 +92324,15 @@
         <v>-1.9637801033674485e-18</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>29666</v>
+        <v>30266</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>29340</v>
+        <v>29940</v>
       </c>
       <c r="B47" s="0">
         <v>0.10000000000000001</v>
@@ -90539,15 +92341,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>29667</v>
+        <v>30267</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>29341</v>
+        <v>29941</v>
       </c>
       <c r="B48" s="0">
         <v>0.13</v>
@@ -90556,15 +92358,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>29668</v>
+        <v>30268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>29342</v>
+        <v>29942</v>
       </c>
       <c r="B49" s="0">
         <v>0.40000000000000002</v>
@@ -90573,15 +92375,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>29669</v>
+        <v>30269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>29343</v>
+        <v>29943</v>
       </c>
       <c r="B50" s="0">
         <v>0.0028491722207563673</v>
@@ -90590,15 +92392,15 @@
         <v>4.1483779502101891e-20</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>29595</v>
+        <v>30195</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>29670</v>
+        <v>30270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>29344</v>
+        <v>29944</v>
       </c>
       <c r="B51" s="0">
         <v>6.2093690245442978</v>
@@ -90607,15 +92409,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>29596</v>
+        <v>30196</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>29671</v>
+        <v>30271</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>29345</v>
+        <v>29945</v>
       </c>
       <c r="B52" s="0">
         <v>4.3166736534265171</v>
@@ -90624,15 +92426,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>29596</v>
+        <v>30196</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>29672</v>
+        <v>30272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>29346</v>
+        <v>29946</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -90641,15 +92443,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>29597</v>
+        <v>30197</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>29673</v>
+        <v>30273</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>29347</v>
+        <v>29947</v>
       </c>
       <c r="B54" s="0">
         <v>0.80000000000000004</v>
@@ -90658,15 +92460,15 @@
         <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>29598</v>
+        <v>30198</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>29674</v>
+        <v>30274</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>29348</v>
+        <v>29948</v>
       </c>
       <c r="B55" s="0">
         <v>6.2093690245442978</v>
@@ -90675,15 +92477,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>29598</v>
+        <v>30198</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>29675</v>
+        <v>30275</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>29349</v>
+        <v>29949</v>
       </c>
       <c r="B56" s="0">
         <v>6.0742380962054554</v>
@@ -90692,15 +92494,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>29598</v>
+        <v>30198</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>29676</v>
+        <v>30276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>29350</v>
+        <v>29950</v>
       </c>
       <c r="B57" s="0">
         <v>0.58902203286642774</v>
@@ -90709,15 +92511,15 @@
         <v>1.0222465642931025</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>29598</v>
+        <v>30198</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>29677</v>
+        <v>30277</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>29351</v>
+        <v>29951</v>
       </c>
       <c r="B58" s="0">
         <v>0.65000000000000002</v>
@@ -90726,15 +92528,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>29599</v>
+        <v>30199</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>29678</v>
+        <v>30278</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>29352</v>
+        <v>29952</v>
       </c>
       <c r="B59" s="0">
         <v>0.65000000000000002</v>
@@ -90743,15 +92545,15 @@
         <v>0</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>29599</v>
+        <v>30199</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>29679</v>
+        <v>30279</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>29353</v>
+        <v>29953</v>
       </c>
       <c r="B60" s="0">
         <v>0.58902203286642774</v>
@@ -90760,15 +92562,15 @@
         <v>4.0708177569589072e-16</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>29599</v>
+        <v>30199</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>29680</v>
+        <v>30280</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>29354</v>
+        <v>29954</v>
       </c>
       <c r="B61" s="0">
         <v>0.22654693571785681</v>
@@ -90777,15 +92579,15 @@
         <v>1.5728159515523052e-16</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>29599</v>
+        <v>30199</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>29681</v>
+        <v>30281</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>29355</v>
+        <v>29955</v>
       </c>
       <c r="B62" s="0">
         <v>1</v>
@@ -90794,15 +92596,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>29682</v>
+        <v>30282</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>29356</v>
+        <v>29956</v>
       </c>
       <c r="B63" s="0">
         <v>1</v>
@@ -90811,15 +92613,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>29683</v>
+        <v>30283</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>29357</v>
+        <v>29957</v>
       </c>
       <c r="B64" s="0">
         <v>0.58902203286642774</v>
@@ -90828,15 +92630,15 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>29684</v>
+        <v>30284</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>29358</v>
+        <v>29958</v>
       </c>
       <c r="B65" s="0">
         <v>0.58902203286642774</v>
@@ -90845,15 +92647,15 @@
         <v>4.0708177569589072e-16</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>29601</v>
+        <v>30201</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>29685</v>
+        <v>30285</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>29359</v>
+        <v>29959</v>
       </c>
       <c r="B66" s="0">
         <v>0.58902203286642774</v>
@@ -90862,15 +92664,15 @@
         <v>1.0222465642931025</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>29602</v>
+        <v>30202</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>29686</v>
+        <v>30286</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>29360</v>
+        <v>29960</v>
       </c>
       <c r="B67" s="0">
         <v>0.65000000000000002</v>
@@ -90879,15 +92681,15 @@
         <v>0</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>29687</v>
+        <v>30287</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>29361</v>
+        <v>29961</v>
       </c>
       <c r="B68" s="0">
         <v>0.58902203286642774</v>
@@ -90896,15 +92698,15 @@
         <v>4.0708177569589072e-16</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>29688</v>
+        <v>30288</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>29362</v>
+        <v>29962</v>
       </c>
       <c r="B69" s="0">
         <v>0.22654693571785681</v>
@@ -90913,15 +92715,15 @@
         <v>1.5728159515523052e-16</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>29689</v>
+        <v>30289</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>29363</v>
+        <v>29963</v>
       </c>
       <c r="B70" s="0">
         <v>0.65000000000000002</v>
@@ -90930,15 +92732,15 @@
         <v>0</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>29690</v>
+        <v>30290</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>29364</v>
+        <v>29964</v>
       </c>
       <c r="B71" s="0">
         <v>0.012500000000000001</v>
@@ -90947,15 +92749,15 @@
         <v>0</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>29691</v>
+        <v>30291</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>29365</v>
+        <v>29965</v>
       </c>
       <c r="B72" s="0">
         <v>0.012500000000000001</v>
@@ -90964,15 +92766,15 @@
         <v>0</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>29692</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>29366</v>
+        <v>29966</v>
       </c>
       <c r="B73" s="0">
         <v>0.19471658382804186</v>
@@ -90981,15 +92783,15 @@
         <v>0</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>29693</v>
+        <v>30293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>29367</v>
+        <v>29967</v>
       </c>
       <c r="B74" s="0">
         <v>0</v>
@@ -90998,15 +92800,15 @@
         <v>0</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>29694</v>
+        <v>30294</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>29368</v>
+        <v>29968</v>
       </c>
       <c r="B75" s="0">
         <v>0.019864276187257168</v>
@@ -91015,15 +92817,15 @@
         <v>0</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>29695</v>
+        <v>30295</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>29369</v>
+        <v>29969</v>
       </c>
       <c r="B76" s="0">
         <v>0.0065959963370103569</v>
@@ -91032,15 +92834,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>29696</v>
+        <v>30296</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>29370</v>
+        <v>29970</v>
       </c>
       <c r="B77" s="0">
         <v>0.0098642761872571681</v>
@@ -91049,15 +92851,15 @@
         <v>0</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>29697</v>
+        <v>30297</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>29371</v>
+        <v>29971</v>
       </c>
       <c r="B78" s="0">
         <v>0</v>
@@ -91066,15 +92868,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>29698</v>
+        <v>30298</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>29372</v>
+        <v>29972</v>
       </c>
       <c r="B79" s="0">
         <v>0.035061399268221799</v>
@@ -91083,15 +92885,15 @@
         <v>3.7007434154171883e-17</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>29603</v>
+        <v>30203</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>29699</v>
+        <v>30299</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>29373</v>
+        <v>29973</v>
       </c>
       <c r="B80" s="0">
         <v>0.01</v>
@@ -91100,13 +92902,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>29604</v>
+        <v>30204</v>
       </c>
       <c r="E80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>29374</v>
+        <v>29974</v>
       </c>
       <c r="B81" s="0">
         <v>0.035061399268221799</v>
@@ -91115,15 +92917,15 @@
         <v>3.6485248519730104e-17</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>29700</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>29375</v>
+        <v>29975</v>
       </c>
       <c r="B82" s="0">
         <v>0.035061399268221799</v>
@@ -91132,15 +92934,15 @@
         <v>3.4204358406158875e-17</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>29701</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>29376</v>
+        <v>29976</v>
       </c>
       <c r="B83" s="0">
         <v>0.035061399268221799</v>
@@ -91149,15 +92951,15 @@
         <v>3.3906202808725361e-17</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>29702</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>29377</v>
+        <v>29977</v>
       </c>
       <c r="B84" s="0">
         <v>0.032120709613922438</v>
@@ -91166,15 +92968,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>29703</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>29378</v>
+        <v>29978</v>
       </c>
       <c r="B85" s="0">
         <v>0.0028491722207563673</v>
@@ -91183,15 +92985,15 @@
         <v>5.5036927043531167e-20</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>29704</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>29379</v>
+        <v>29979</v>
       </c>
       <c r="B86" s="0">
         <v>0.019864276187257168</v>
@@ -91200,15 +93002,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>29705</v>
+        <v>30305</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>29380</v>
+        <v>29980</v>
       </c>
       <c r="B87" s="0">
         <v>0.015197123080964631</v>
@@ -91217,15 +93019,15 @@
         <v>3.4694469519536142e-17</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>29706</v>
+        <v>30306</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>29381</v>
+        <v>29981</v>
       </c>
       <c r="B88" s="0">
         <v>0</v>
@@ -91234,15 +93036,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>29707</v>
+        <v>30307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>29382</v>
+        <v>29982</v>
       </c>
       <c r="B89" s="0">
         <v>0</v>
@@ -91251,15 +93053,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>29708</v>
+        <v>30308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>29383</v>
+        <v>29983</v>
       </c>
       <c r="B90" s="0">
         <v>0.014864276187257167</v>
@@ -91268,15 +93070,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>29709</v>
+        <v>30309</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>29384</v>
+        <v>29984</v>
       </c>
       <c r="B91" s="0">
         <v>0.014864276187257167</v>
@@ -91285,15 +93087,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>29710</v>
+        <v>30310</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>29385</v>
+        <v>29985</v>
       </c>
       <c r="B92" s="0">
         <v>0.0090959963370103574</v>
@@ -91302,15 +93104,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>29711</v>
+        <v>30311</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>29386</v>
+        <v>29986</v>
       </c>
       <c r="B93" s="0">
         <v>0.0090959963370103574</v>
@@ -91319,15 +93121,15 @@
         <v>0</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>29605</v>
+        <v>30205</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>29712</v>
+        <v>30312</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>29387</v>
+        <v>29987</v>
       </c>
       <c r="B94" s="0">
         <v>2.6000000000000001</v>
@@ -91336,15 +93138,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>29713</v>
+        <v>30313</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>29388</v>
+        <v>29988</v>
       </c>
       <c r="B95" s="0">
         <v>2.5434176947299769</v>
@@ -91353,15 +93155,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>29714</v>
+        <v>30314</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>29389</v>
+        <v>29989</v>
       </c>
       <c r="B96" s="0">
         <v>0.23521456867838847</v>
@@ -91370,15 +93172,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>29715</v>
+        <v>30315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>29390</v>
+        <v>29990</v>
       </c>
       <c r="B97" s="0">
         <v>0.20599680758912786</v>
@@ -91387,15 +93189,15 @@
         <v>1.0222465642931013</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>29716</v>
+        <v>30316</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>29391</v>
+        <v>29991</v>
       </c>
       <c r="B98" s="0">
         <v>0.21057952881333306</v>
@@ -91404,15 +93206,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>29717</v>
+        <v>30317</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>29392</v>
+        <v>29992</v>
       </c>
       <c r="B99" s="0">
         <v>0.18136176772407264</v>
@@ -91421,15 +93223,15 @@
         <v>1.0222465642931013</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>29718</v>
+        <v>30318</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>29393</v>
+        <v>29993</v>
       </c>
       <c r="B100" s="0">
         <v>2.3894204711866669</v>
@@ -91438,15 +93240,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>29719</v>
+        <v>30319</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>29394</v>
+        <v>29994</v>
       </c>
       <c r="B101" s="0">
         <v>2.4186382322759274</v>
@@ -91455,15 +93257,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>29720</v>
+        <v>30320</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>29395</v>
+        <v>29995</v>
       </c>
       <c r="B102" s="0">
         <v>0.024171924544949461</v>
@@ -91472,15 +93274,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>29606</v>
+        <v>30206</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>29721</v>
+        <v>30321</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>29396</v>
+        <v>29996</v>
       </c>
       <c r="B103" s="0">
         <v>0.08099212646666655</v>
@@ -91489,15 +93291,15 @@
         <v>4.6259292692714853e-18</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>29607</v>
+        <v>30207</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>29722</v>
+        <v>30322</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>29397</v>
+        <v>29997</v>
       </c>
       <c r="B104" s="0">
         <v>0.069754526047720242</v>
@@ -91506,15 +93308,15 @@
         <v>-2.7755575615628914e-17</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>29607</v>
+        <v>30207</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>29723</v>
+        <v>30323</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>29398</v>
+        <v>29998</v>
       </c>
       <c r="B105" s="0">
         <v>2.6000000000000001</v>
@@ -91523,15 +93325,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>29724</v>
+        <v>30324</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>29399</v>
+        <v>29999</v>
       </c>
       <c r="B106" s="0">
         <v>2.5434176947299769</v>
@@ -91540,15 +93342,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>29725</v>
+        <v>30325</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>29400</v>
+        <v>30000</v>
       </c>
       <c r="B107" s="0">
         <v>2.3894204711866669</v>
@@ -91557,15 +93359,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>29726</v>
+        <v>30326</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>29401</v>
+        <v>30001</v>
       </c>
       <c r="B108" s="0">
         <v>2.3082031260515885</v>
@@ -91574,15 +93376,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>29727</v>
+        <v>30327</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>29402</v>
+        <v>30002</v>
       </c>
       <c r="B109" s="0">
         <v>2.3374208871408491</v>
@@ -91591,15 +93393,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>29728</v>
+        <v>30328</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>29403</v>
+        <v>30003</v>
       </c>
       <c r="B110" s="0">
         <v>2.4186382322759274</v>
@@ -91608,15 +93410,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>29729</v>
+        <v>30329</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>29404</v>
+        <v>30004</v>
       </c>
       <c r="B111" s="0">
         <v>0.029217761089260615</v>
@@ -91625,15 +93427,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>29730</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>29405</v>
+        <v>30005</v>
       </c>
       <c r="B112" s="0">
         <v>0.0014608880544630322</v>
@@ -91642,15 +93444,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>29731</v>
+        <v>30331</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>29406</v>
+        <v>30006</v>
       </c>
       <c r="B113" s="0">
         <v>0.027756873034797583</v>
@@ -91659,15 +93461,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>29732</v>
+        <v>30332</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>29407</v>
+        <v>30007</v>
       </c>
       <c r="B114" s="0">
         <v>0.21057952881333306</v>
@@ -91676,15 +93478,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>29733</v>
+        <v>30333</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>29408</v>
+        <v>30008</v>
       </c>
       <c r="B115" s="0">
         <v>0.18136176772407264</v>
@@ -91693,15 +93495,15 @@
         <v>1.0222465642931013</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>29608</v>
+        <v>30208</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>29734</v>
+        <v>30334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>29409</v>
+        <v>30009</v>
       </c>
       <c r="B116" s="0">
         <v>1.1611020969629766</v>
@@ -91710,15 +93512,15 @@
         <v>5.1810407815840642e-16</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>29609</v>
+        <v>30209</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>29735</v>
+        <v>30335</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>29410</v>
+        <v>30010</v>
       </c>
       <c r="B117" s="0">
         <v>0.23521456867838847</v>
@@ -91727,15 +93529,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>29736</v>
+        <v>30336</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>29411</v>
+        <v>30011</v>
       </c>
       <c r="B118" s="0">
         <v>0.20599680758912786</v>
@@ -91744,15 +93546,15 @@
         <v>1.0222465642931013</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>29737</v>
+        <v>30337</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>29412</v>
+        <v>30012</v>
       </c>
       <c r="B119" s="0">
         <v>0.045848416690488544</v>
@@ -91761,15 +93563,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>29738</v>
+        <v>30338</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>29413</v>
+        <v>30013</v>
       </c>
       <c r="B120" s="0">
         <v>0.0463115320105945</v>
@@ -91778,15 +93580,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>29739</v>
+        <v>30339</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>29414</v>
+        <v>30014</v>
       </c>
       <c r="B121" s="0">
         <v>0.1647311121228445</v>
@@ -91795,15 +93597,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>29740</v>
+        <v>30340</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>29415</v>
+        <v>30015</v>
       </c>
       <c r="B122" s="0">
         <v>0.18890303666779396</v>
@@ -91812,15 +93614,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>29610</v>
+        <v>30210</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>29741</v>
+        <v>30341</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>29416</v>
+        <v>30016</v>
       </c>
       <c r="B123" s="0">
         <v>0.21772494671659465</v>
@@ -91829,15 +93631,15 @@
         <v>-4.6259292692714858e-17</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>29611</v>
+        <v>30211</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>29742</v>
+        <v>30342</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>29417</v>
+        <v>30017</v>
       </c>
       <c r="B124" s="0">
         <v>0.024171924544949461</v>
@@ -91846,15 +93648,15 @@
         <v>1.0222465642931016</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>29612</v>
+        <v>30212</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>29743</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>29418</v>
+        <v>30018</v>
       </c>
       <c r="B125" s="0">
         <v>0.0092968940557497919</v>
@@ -91863,15 +93665,15 @@
         <v>-1.7347234759768071e-18</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>29613</v>
+        <v>30213</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>29744</v>
+        <v>30344</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>29419</v>
+        <v>30019</v>
       </c>
       <c r="B126" s="0">
         <v>0.08099212646666655</v>
@@ -91880,15 +93682,15 @@
         <v>4.6259292692714853e-18</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>29613</v>
+        <v>30213</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>29745</v>
+        <v>30345</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>29420</v>
+        <v>30020</v>
       </c>
       <c r="B127" s="0">
         <v>0.069754526047720242</v>
@@ -91897,15 +93699,15 @@
         <v>-2.7755575615628914e-17</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>29613</v>
+        <v>30213</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>29746</v>
+        <v>30346</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>29421</v>
+        <v>30021</v>
       </c>
       <c r="B128" s="0">
         <v>1</v>
@@ -91914,15 +93716,15 @@
         <v>1</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>29614</v>
+        <v>30214</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>29747</v>
+        <v>30347</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>29422</v>
+        <v>30022</v>
       </c>
       <c r="B129" s="0">
         <v>0</v>
@@ -91931,15 +93733,15 @@
         <v>0</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>29615</v>
+        <v>30215</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>29748</v>
+        <v>30348</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>29423</v>
+        <v>30023</v>
       </c>
       <c r="B130" s="0">
         <v>0.32191099640318638</v>
@@ -91948,15 +93750,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>29616</v>
+        <v>30216</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>29749</v>
+        <v>30349</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>29424</v>
+        <v>30024</v>
       </c>
       <c r="B131" s="0">
         <v>0.12381192169353322</v>
@@ -91965,13 +93767,13 @@
         <v>0</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>29617</v>
+        <v>30217</v>
       </c>
       <c r="E131" s="0"/>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>29425</v>
+        <v>30025</v>
       </c>
       <c r="B132" s="0">
         <v>0.32191099640318638</v>
@@ -91980,15 +93782,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>29618</v>
+        <v>30218</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>29750</v>
+        <v>30350</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>29426</v>
+        <v>30026</v>
       </c>
       <c r="B133" s="0">
         <v>0.12186044403052</v>
@@ -91997,15 +93799,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>29618</v>
+        <v>30218</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>29751</v>
+        <v>30351</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>29427</v>
+        <v>30027</v>
       </c>
       <c r="B134" s="0">
         <v>0.20005055237266639</v>
@@ -92014,15 +93816,15 @@
         <v>1.0222465642931018</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>29618</v>
+        <v>30218</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>29752</v>
+        <v>30352</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>29428</v>
+        <v>30028</v>
       </c>
       <c r="B135" s="0">
         <v>0</v>
@@ -92031,15 +93833,15 @@
         <v>0</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>29619</v>
+        <v>30219</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>29753</v>
+        <v>30353</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>29429</v>
+        <v>30029</v>
       </c>
       <c r="B136" s="0">
         <v>0.12381192169353322</v>
@@ -92048,13 +93850,13 @@
         <v>0</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>29619</v>
+        <v>30219</v>
       </c>
       <c r="E136" s="0"/>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>29430</v>
+        <v>30030</v>
       </c>
       <c r="B137" s="0">
         <v>0.27563726353956741</v>
@@ -92063,15 +93865,15 @@
         <v>1.0222465642931027</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>29620</v>
+        <v>30220</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>29754</v>
+        <v>30354</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>29431</v>
+        <v>30031</v>
       </c>
       <c r="B138" s="0">
         <v>0.10601433213060285</v>
@@ -92080,15 +93882,15 @@
         <v>9.2518585385429716e-17</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>29621</v>
+        <v>30221</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>29755</v>
+        <v>30355</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>29432</v>
+        <v>30032</v>
       </c>
       <c r="B139" s="0">
         <v>0.95358449768297016</v>
@@ -92097,15 +93899,15 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>29622</v>
+        <v>30222</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>29756</v>
+        <v>30356</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>29433</v>
+        <v>30033</v>
       </c>
       <c r="B140" s="0">
         <v>0.27563726353956741</v>
@@ -92114,15 +93916,15 @@
         <v>1.0222465642931025</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>29622</v>
+        <v>30222</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>29757</v>
+        <v>30357</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>29434</v>
+        <v>30034</v>
       </c>
       <c r="B141" s="0">
         <v>0.10601433213060285</v>
@@ -92131,15 +93933,15 @@
         <v>7.4014868308343765e-17</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>29623</v>
+        <v>30223</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>29758</v>
+        <v>30358</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>29435</v>
+        <v>30035</v>
       </c>
       <c r="B142" s="0">
         <v>0</v>
@@ -92149,12 +93951,12 @@
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="0" t="s">
-        <v>29759</v>
+        <v>30359</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>29436</v>
+        <v>30036</v>
       </c>
       <c r="B143" s="0">
         <v>0</v>
@@ -92164,12 +93966,12 @@
       </c>
       <c r="D143" s="0"/>
       <c r="E143" s="0" t="s">
-        <v>29760</v>
+        <v>30360</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>29437</v>
+        <v>30037</v>
       </c>
       <c r="B144" s="0">
         <v>0</v>
@@ -92179,12 +93981,12 @@
       </c>
       <c r="D144" s="0"/>
       <c r="E144" s="0" t="s">
-        <v>29761</v>
+        <v>30361</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>29438</v>
+        <v>30038</v>
       </c>
       <c r="B145" s="0">
         <v>0</v>
@@ -92194,12 +93996,12 @@
       </c>
       <c r="D145" s="0"/>
       <c r="E145" s="0" t="s">
-        <v>29762</v>
+        <v>30362</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>29439</v>
+        <v>30039</v>
       </c>
       <c r="B146" s="0">
         <v>0</v>
@@ -92209,12 +94011,12 @@
       </c>
       <c r="D146" s="0"/>
       <c r="E146" s="0" t="s">
-        <v>29763</v>
+        <v>30363</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>29440</v>
+        <v>30040</v>
       </c>
       <c r="B147" s="0">
         <v>0</v>
@@ -92224,12 +94026,12 @@
       </c>
       <c r="D147" s="0"/>
       <c r="E147" s="0" t="s">
-        <v>29764</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>29441</v>
+        <v>30041</v>
       </c>
       <c r="B148" s="0">
         <v>0</v>
@@ -92239,12 +94041,12 @@
       </c>
       <c r="D148" s="0"/>
       <c r="E148" s="0" t="s">
-        <v>29765</v>
+        <v>30365</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>29442</v>
+        <v>30042</v>
       </c>
       <c r="B149" s="0">
         <v>0</v>
@@ -92254,12 +94056,12 @@
       </c>
       <c r="D149" s="0"/>
       <c r="E149" s="0" t="s">
-        <v>29766</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>29443</v>
+        <v>30043</v>
       </c>
       <c r="B150" s="0">
         <v>0</v>
@@ -92272,7 +94074,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>29444</v>
+        <v>30044</v>
       </c>
       <c r="B151" s="0">
         <v>0</v>
@@ -92282,12 +94084,12 @@
       </c>
       <c r="D151" s="0"/>
       <c r="E151" s="0" t="s">
-        <v>29767</v>
+        <v>30367</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>29445</v>
+        <v>30045</v>
       </c>
       <c r="B152" s="0">
         <v>0</v>
@@ -92297,12 +94099,12 @@
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="0" t="s">
-        <v>29768</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>29446</v>
+        <v>30046</v>
       </c>
       <c r="B153" s="0">
         <v>0</v>
@@ -92312,12 +94114,12 @@
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0" t="s">
-        <v>29769</v>
+        <v>30369</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>29447</v>
+        <v>30047</v>
       </c>
       <c r="B154" s="0">
         <v>0</v>
@@ -92327,12 +94129,12 @@
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="0" t="s">
-        <v>29770</v>
+        <v>30370</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>29448</v>
+        <v>30048</v>
       </c>
       <c r="B155" s="0">
         <v>0</v>
@@ -92342,12 +94144,12 @@
       </c>
       <c r="D155" s="0"/>
       <c r="E155" s="0" t="s">
-        <v>29771</v>
+        <v>30371</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>29449</v>
+        <v>30049</v>
       </c>
       <c r="B156" s="0">
         <v>0</v>
@@ -92357,12 +94159,12 @@
       </c>
       <c r="D156" s="0"/>
       <c r="E156" s="0" t="s">
-        <v>29772</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>29450</v>
+        <v>30050</v>
       </c>
       <c r="B157" s="0">
         <v>0</v>
@@ -92372,12 +94174,12 @@
       </c>
       <c r="D157" s="0"/>
       <c r="E157" s="0" t="s">
-        <v>29773</v>
+        <v>30373</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>29451</v>
+        <v>30051</v>
       </c>
       <c r="B158" s="0">
         <v>0</v>
@@ -92387,12 +94189,12 @@
       </c>
       <c r="D158" s="0"/>
       <c r="E158" s="0" t="s">
-        <v>29774</v>
+        <v>30374</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>29452</v>
+        <v>30052</v>
       </c>
       <c r="B159" s="0">
         <v>0</v>
@@ -92402,12 +94204,12 @@
       </c>
       <c r="D159" s="0"/>
       <c r="E159" s="0" t="s">
-        <v>29775</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>29453</v>
+        <v>30053</v>
       </c>
       <c r="B160" s="0">
         <v>0</v>
@@ -92417,12 +94219,12 @@
       </c>
       <c r="D160" s="0"/>
       <c r="E160" s="0" t="s">
-        <v>29776</v>
+        <v>30376</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>29454</v>
+        <v>30054</v>
       </c>
       <c r="B161" s="0">
         <v>0</v>
@@ -92432,12 +94234,12 @@
       </c>
       <c r="D161" s="0"/>
       <c r="E161" s="0" t="s">
-        <v>29777</v>
+        <v>30377</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>29455</v>
+        <v>30055</v>
       </c>
       <c r="B162" s="0">
         <v>0</v>
@@ -92447,12 +94249,12 @@
       </c>
       <c r="D162" s="0"/>
       <c r="E162" s="0" t="s">
-        <v>29778</v>
+        <v>30378</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>29456</v>
+        <v>30056</v>
       </c>
       <c r="B163" s="0">
         <v>0</v>
@@ -92462,12 +94264,12 @@
       </c>
       <c r="D163" s="0"/>
       <c r="E163" s="0" t="s">
-        <v>29779</v>
+        <v>30379</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>29457</v>
+        <v>30057</v>
       </c>
       <c r="B164" s="0">
         <v>0</v>
@@ -92477,12 +94279,12 @@
       </c>
       <c r="D164" s="0"/>
       <c r="E164" s="0" t="s">
-        <v>29780</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>29458</v>
+        <v>30058</v>
       </c>
       <c r="B165" s="0">
         <v>0</v>
@@ -92492,12 +94294,12 @@
       </c>
       <c r="D165" s="0"/>
       <c r="E165" s="0" t="s">
-        <v>29781</v>
+        <v>30381</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>29459</v>
+        <v>30059</v>
       </c>
       <c r="B166" s="0">
         <v>0</v>
@@ -92507,12 +94309,12 @@
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="0" t="s">
-        <v>29782</v>
+        <v>30382</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>29460</v>
+        <v>30060</v>
       </c>
       <c r="B167" s="0">
         <v>0</v>
@@ -92522,12 +94324,12 @@
       </c>
       <c r="D167" s="0"/>
       <c r="E167" s="0" t="s">
-        <v>29783</v>
+        <v>30383</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>29461</v>
+        <v>30061</v>
       </c>
       <c r="B168" s="0">
         <v>0</v>
@@ -92537,12 +94339,12 @@
       </c>
       <c r="D168" s="0"/>
       <c r="E168" s="0" t="s">
-        <v>29784</v>
+        <v>30384</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>29462</v>
+        <v>30062</v>
       </c>
       <c r="B169" s="0">
         <v>0</v>
@@ -92552,12 +94354,12 @@
       </c>
       <c r="D169" s="0"/>
       <c r="E169" s="0" t="s">
-        <v>29785</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>29463</v>
+        <v>30063</v>
       </c>
       <c r="B170" s="0">
         <v>0</v>
@@ -92567,12 +94369,12 @@
       </c>
       <c r="D170" s="0"/>
       <c r="E170" s="0" t="s">
-        <v>29786</v>
+        <v>30386</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>29464</v>
+        <v>30064</v>
       </c>
       <c r="B171" s="0">
         <v>0</v>
@@ -92582,12 +94384,12 @@
       </c>
       <c r="D171" s="0"/>
       <c r="E171" s="0" t="s">
-        <v>29787</v>
+        <v>30387</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>29465</v>
+        <v>30065</v>
       </c>
       <c r="B172" s="0">
         <v>0</v>
@@ -92597,12 +94399,12 @@
       </c>
       <c r="D172" s="0"/>
       <c r="E172" s="0" t="s">
-        <v>29788</v>
+        <v>30388</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>29466</v>
+        <v>30066</v>
       </c>
       <c r="B173" s="0">
         <v>0</v>
@@ -92612,12 +94414,12 @@
       </c>
       <c r="D173" s="0"/>
       <c r="E173" s="0" t="s">
-        <v>29789</v>
+        <v>30389</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>29467</v>
+        <v>30067</v>
       </c>
       <c r="B174" s="0">
         <v>0</v>
@@ -92627,12 +94429,12 @@
       </c>
       <c r="D174" s="0"/>
       <c r="E174" s="0" t="s">
-        <v>29790</v>
+        <v>30390</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>29468</v>
+        <v>30068</v>
       </c>
       <c r="B175" s="0">
         <v>0</v>
@@ -92642,12 +94444,12 @@
       </c>
       <c r="D175" s="0"/>
       <c r="E175" s="0" t="s">
-        <v>29791</v>
+        <v>30391</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>29469</v>
+        <v>30069</v>
       </c>
       <c r="B176" s="0">
         <v>0</v>
@@ -92657,12 +94459,12 @@
       </c>
       <c r="D176" s="0"/>
       <c r="E176" s="0" t="s">
-        <v>29792</v>
+        <v>30392</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>29470</v>
+        <v>30070</v>
       </c>
       <c r="B177" s="0">
         <v>0</v>
@@ -92672,12 +94474,12 @@
       </c>
       <c r="D177" s="0"/>
       <c r="E177" s="0" t="s">
-        <v>29793</v>
+        <v>30393</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>29471</v>
+        <v>30071</v>
       </c>
       <c r="B178" s="0">
         <v>0</v>
@@ -92687,12 +94489,12 @@
       </c>
       <c r="D178" s="0"/>
       <c r="E178" s="0" t="s">
-        <v>29794</v>
+        <v>30394</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>29472</v>
+        <v>30072</v>
       </c>
       <c r="B179" s="0">
         <v>0</v>
@@ -92702,12 +94504,12 @@
       </c>
       <c r="D179" s="0"/>
       <c r="E179" s="0" t="s">
-        <v>29795</v>
+        <v>30395</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>29473</v>
+        <v>30073</v>
       </c>
       <c r="B180" s="0">
         <v>0</v>
@@ -92717,12 +94519,12 @@
       </c>
       <c r="D180" s="0"/>
       <c r="E180" s="0" t="s">
-        <v>29796</v>
+        <v>30396</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>29474</v>
+        <v>30074</v>
       </c>
       <c r="B181" s="0">
         <v>0</v>
@@ -92732,12 +94534,12 @@
       </c>
       <c r="D181" s="0"/>
       <c r="E181" s="0" t="s">
-        <v>29797</v>
+        <v>30397</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>29475</v>
+        <v>30075</v>
       </c>
       <c r="B182" s="0">
         <v>0</v>
@@ -92750,7 +94552,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>29476</v>
+        <v>30076</v>
       </c>
       <c r="B183" s="0">
         <v>0</v>
@@ -92760,12 +94562,12 @@
       </c>
       <c r="D183" s="0"/>
       <c r="E183" s="0" t="s">
-        <v>29798</v>
+        <v>30398</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>29477</v>
+        <v>30077</v>
       </c>
       <c r="B184" s="0">
         <v>0</v>
@@ -92775,12 +94577,12 @@
       </c>
       <c r="D184" s="0"/>
       <c r="E184" s="0" t="s">
-        <v>29799</v>
+        <v>30399</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>29478</v>
+        <v>30078</v>
       </c>
       <c r="B185" s="0">
         <v>0</v>
@@ -92790,12 +94592,12 @@
       </c>
       <c r="D185" s="0"/>
       <c r="E185" s="0" t="s">
-        <v>29799</v>
+        <v>30399</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>29479</v>
+        <v>30079</v>
       </c>
       <c r="B186" s="0">
         <v>0</v>
@@ -92805,12 +94607,12 @@
       </c>
       <c r="D186" s="0"/>
       <c r="E186" s="0" t="s">
-        <v>29799</v>
+        <v>30399</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>29480</v>
+        <v>30080</v>
       </c>
       <c r="B187" s="0">
         <v>0</v>
@@ -92820,12 +94622,12 @@
       </c>
       <c r="D187" s="0"/>
       <c r="E187" s="0" t="s">
-        <v>29799</v>
+        <v>30399</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>29481</v>
+        <v>30081</v>
       </c>
       <c r="B188" s="0">
         <v>0</v>
@@ -92838,7 +94640,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>29482</v>
+        <v>30082</v>
       </c>
       <c r="B189" s="0">
         <v>0</v>
@@ -92848,12 +94650,12 @@
       </c>
       <c r="D189" s="0"/>
       <c r="E189" s="0" t="s">
-        <v>29800</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>29483</v>
+        <v>30083</v>
       </c>
       <c r="B190" s="0">
         <v>0</v>
@@ -92863,12 +94665,12 @@
       </c>
       <c r="D190" s="0"/>
       <c r="E190" s="0" t="s">
-        <v>29801</v>
+        <v>30401</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>29484</v>
+        <v>30084</v>
       </c>
       <c r="B191" s="0">
         <v>0</v>
@@ -92878,12 +94680,12 @@
       </c>
       <c r="D191" s="0"/>
       <c r="E191" s="0" t="s">
-        <v>29802</v>
+        <v>30402</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>29485</v>
+        <v>30085</v>
       </c>
       <c r="B192" s="0">
         <v>0</v>
@@ -92893,12 +94695,12 @@
       </c>
       <c r="D192" s="0"/>
       <c r="E192" s="0" t="s">
-        <v>29803</v>
+        <v>30403</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>29486</v>
+        <v>30086</v>
       </c>
       <c r="B193" s="0">
         <v>0</v>
@@ -92908,12 +94710,12 @@
       </c>
       <c r="D193" s="0"/>
       <c r="E193" s="0" t="s">
-        <v>29804</v>
+        <v>30404</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>29487</v>
+        <v>30087</v>
       </c>
       <c r="B194" s="0">
         <v>0</v>
@@ -92923,12 +94725,12 @@
       </c>
       <c r="D194" s="0"/>
       <c r="E194" s="0" t="s">
-        <v>29805</v>
+        <v>30405</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>29488</v>
+        <v>30088</v>
       </c>
       <c r="B195" s="0">
         <v>0</v>
@@ -92938,12 +94740,12 @@
       </c>
       <c r="D195" s="0"/>
       <c r="E195" s="0" t="s">
-        <v>29806</v>
+        <v>30406</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>29489</v>
+        <v>30089</v>
       </c>
       <c r="B196" s="0">
         <v>0.0016250000000000001</v>
@@ -92953,12 +94755,12 @@
       </c>
       <c r="D196" s="0"/>
       <c r="E196" s="0" t="s">
-        <v>29807</v>
+        <v>30407</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>29490</v>
+        <v>30090</v>
       </c>
       <c r="B197" s="0">
         <v>1.0049629315732038</v>
@@ -92968,12 +94770,12 @@
       </c>
       <c r="D197" s="0"/>
       <c r="E197" s="0" t="s">
-        <v>29808</v>
+        <v>30408</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>29491</v>
+        <v>30091</v>
       </c>
       <c r="B198" s="0">
         <v>0.80000000000000004</v>
@@ -92983,12 +94785,12 @@
       </c>
       <c r="D198" s="0"/>
       <c r="E198" s="0" t="s">
-        <v>29809</v>
+        <v>30409</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>29492</v>
+        <v>30092</v>
       </c>
       <c r="B199" s="0">
         <v>0.90000000000000002</v>
@@ -92998,12 +94800,12 @@
       </c>
       <c r="D199" s="0"/>
       <c r="E199" s="0" t="s">
-        <v>29810</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>29493</v>
+        <v>30093</v>
       </c>
       <c r="B200" s="0">
         <v>0.90000000000000002</v>
@@ -93013,12 +94815,12 @@
       </c>
       <c r="D200" s="0"/>
       <c r="E200" s="0" t="s">
-        <v>29811</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>29494</v>
+        <v>30094</v>
       </c>
       <c r="B201" s="0">
         <v>0.45000000000000001</v>
@@ -93028,12 +94830,12 @@
       </c>
       <c r="D201" s="0"/>
       <c r="E201" s="0" t="s">
-        <v>29812</v>
+        <v>30412</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>29495</v>
+        <v>30095</v>
       </c>
       <c r="B202" s="0">
         <v>0.90000000000000002</v>
@@ -93046,7 +94848,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>29496</v>
+        <v>30096</v>
       </c>
       <c r="B203" s="0">
         <v>1.0098534065489688</v>
@@ -93056,12 +94858,12 @@
       </c>
       <c r="D203" s="0"/>
       <c r="E203" s="0" t="s">
-        <v>29813</v>
+        <v>30413</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>29497</v>
+        <v>30097</v>
       </c>
       <c r="B204" s="0">
         <v>1.0122722344290394</v>
@@ -93071,12 +94873,12 @@
       </c>
       <c r="D204" s="0"/>
       <c r="E204" s="0" t="s">
-        <v>29814</v>
+        <v>30414</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>29498</v>
+        <v>30098</v>
       </c>
       <c r="B205" s="0">
         <v>0.0074999999999999997</v>
@@ -93086,12 +94888,12 @@
       </c>
       <c r="D205" s="0"/>
       <c r="E205" s="0" t="s">
-        <v>29815</v>
+        <v>30415</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>29499</v>
+        <v>30099</v>
       </c>
       <c r="B206" s="0">
         <v>0.99496205639268809</v>
@@ -93101,12 +94903,12 @@
       </c>
       <c r="D206" s="0"/>
       <c r="E206" s="0" t="s">
-        <v>29816</v>
+        <v>30416</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>29500</v>
+        <v>30100</v>
       </c>
       <c r="B207" s="0">
         <v>0.050000000000000003</v>
@@ -93116,12 +94918,12 @@
       </c>
       <c r="D207" s="0"/>
       <c r="E207" s="0" t="s">
-        <v>29817</v>
+        <v>30417</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>29501</v>
+        <v>30101</v>
       </c>
       <c r="B208" s="0">
         <v>0.69999999999999996</v>
@@ -93131,12 +94933,12 @@
       </c>
       <c r="D208" s="0"/>
       <c r="E208" s="0" t="s">
-        <v>29818</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>29502</v>
+        <v>30102</v>
       </c>
       <c r="B209" s="0">
         <v>0.10000000000000001</v>
@@ -93146,12 +94948,12 @@
       </c>
       <c r="D209" s="0"/>
       <c r="E209" s="0" t="s">
-        <v>29819</v>
+        <v>30419</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>29503</v>
+        <v>30103</v>
       </c>
       <c r="B210" s="0">
         <v>0.050000000000000003</v>
@@ -93161,12 +94963,12 @@
       </c>
       <c r="D210" s="0"/>
       <c r="E210" s="0" t="s">
-        <v>29820</v>
+        <v>30420</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>29504</v>
+        <v>30104</v>
       </c>
       <c r="B211" s="0">
         <v>0.14999999999999999</v>
@@ -93176,12 +94978,12 @@
       </c>
       <c r="D211" s="0"/>
       <c r="E211" s="0" t="s">
-        <v>29821</v>
+        <v>30421</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>29505</v>
+        <v>30105</v>
       </c>
       <c r="B212" s="0">
         <v>0.02</v>
@@ -93191,12 +94993,12 @@
       </c>
       <c r="D212" s="0"/>
       <c r="E212" s="0" t="s">
-        <v>29822</v>
+        <v>30422</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>29506</v>
+        <v>30106</v>
       </c>
       <c r="B213" s="0">
         <v>0.29999999999999999</v>
@@ -93206,12 +95008,12 @@
       </c>
       <c r="D213" s="0"/>
       <c r="E213" s="0" t="s">
-        <v>29823</v>
+        <v>30423</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>29507</v>
+        <v>30107</v>
       </c>
       <c r="B214" s="0">
         <v>0</v>
@@ -93221,12 +95023,12 @@
       </c>
       <c r="D214" s="0"/>
       <c r="E214" s="0" t="s">
-        <v>29824</v>
+        <v>30424</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>29508</v>
+        <v>30108</v>
       </c>
       <c r="B215" s="0">
         <v>0.90000000000000002</v>
@@ -93236,12 +95038,12 @@
       </c>
       <c r="D215" s="0"/>
       <c r="E215" s="0" t="s">
-        <v>29825</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>29509</v>
+        <v>30109</v>
       </c>
       <c r="B216" s="0">
         <v>0.001</v>
@@ -93251,12 +95053,12 @@
       </c>
       <c r="D216" s="0"/>
       <c r="E216" s="0" t="s">
-        <v>29826</v>
+        <v>30426</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>29510</v>
+        <v>30110</v>
       </c>
       <c r="B217" s="0">
         <v>0.59999999999999998</v>
@@ -93266,12 +95068,12 @@
       </c>
       <c r="D217" s="0"/>
       <c r="E217" s="0" t="s">
-        <v>29827</v>
+        <v>30427</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>29511</v>
+        <v>30111</v>
       </c>
       <c r="B218" s="0">
         <v>0.025000000000000001</v>
@@ -93281,12 +95083,12 @@
       </c>
       <c r="D218" s="0"/>
       <c r="E218" s="0" t="s">
-        <v>29828</v>
+        <v>30428</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>29512</v>
+        <v>30112</v>
       </c>
       <c r="B219" s="0">
         <v>0.012500000000000001</v>
@@ -93296,12 +95098,12 @@
       </c>
       <c r="D219" s="0"/>
       <c r="E219" s="0" t="s">
-        <v>29829</v>
+        <v>30429</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>29513</v>
+        <v>30113</v>
       </c>
       <c r="B220" s="0">
         <v>0</v>
@@ -93311,12 +95113,12 @@
       </c>
       <c r="D220" s="0"/>
       <c r="E220" s="0" t="s">
-        <v>29830</v>
+        <v>30430</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>29514</v>
+        <v>30114</v>
       </c>
       <c r="B221" s="0">
         <v>0.84999999999999998</v>
@@ -93326,12 +95128,12 @@
       </c>
       <c r="D221" s="0"/>
       <c r="E221" s="0" t="s">
-        <v>29831</v>
+        <v>30431</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>29515</v>
+        <v>30115</v>
       </c>
       <c r="B222" s="0">
         <v>0.69999999999999996</v>
@@ -93341,12 +95143,12 @@
       </c>
       <c r="D222" s="0"/>
       <c r="E222" s="0" t="s">
-        <v>29832</v>
+        <v>30432</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>29516</v>
+        <v>30116</v>
       </c>
       <c r="B223" s="0">
         <v>0.625</v>
@@ -93356,12 +95158,12 @@
       </c>
       <c r="D223" s="0"/>
       <c r="E223" s="0" t="s">
-        <v>29833</v>
+        <v>30433</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>29517</v>
+        <v>30117</v>
       </c>
       <c r="B224" s="0">
         <v>0</v>
@@ -93371,12 +95173,12 @@
       </c>
       <c r="D224" s="0"/>
       <c r="E224" s="0" t="s">
-        <v>29834</v>
+        <v>30434</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>29518</v>
+        <v>30118</v>
       </c>
       <c r="B225" s="0">
         <v>0.10000000000000001</v>
@@ -93386,12 +95188,12 @@
       </c>
       <c r="D225" s="0"/>
       <c r="E225" s="0" t="s">
-        <v>29835</v>
+        <v>30435</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>29519</v>
+        <v>30119</v>
       </c>
       <c r="B226" s="0">
         <v>0.94999999999999996</v>
@@ -93401,12 +95203,12 @@
       </c>
       <c r="D226" s="0"/>
       <c r="E226" s="0" t="s">
-        <v>29836</v>
+        <v>30436</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>29520</v>
+        <v>30120</v>
       </c>
       <c r="B227" s="0">
         <v>0.59999999999999998</v>
@@ -93416,12 +95218,12 @@
       </c>
       <c r="D227" s="0"/>
       <c r="E227" s="0" t="s">
-        <v>29837</v>
+        <v>30437</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>29521</v>
+        <v>30121</v>
       </c>
       <c r="B228" s="0">
         <v>0.10000000000000001</v>
@@ -93431,12 +95233,12 @@
       </c>
       <c r="D228" s="0"/>
       <c r="E228" s="0" t="s">
-        <v>29838</v>
+        <v>30438</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>29522</v>
+        <v>30122</v>
       </c>
       <c r="B229" s="0">
         <v>0.59999999999999998</v>
@@ -93446,12 +95248,12 @@
       </c>
       <c r="D229" s="0"/>
       <c r="E229" s="0" t="s">
-        <v>29839</v>
+        <v>30439</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>29523</v>
+        <v>30123</v>
       </c>
       <c r="B230" s="0">
         <v>0.94999999999999996</v>
@@ -93461,12 +95263,12 @@
       </c>
       <c r="D230" s="0"/>
       <c r="E230" s="0" t="s">
-        <v>29840</v>
+        <v>30440</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>29524</v>
+        <v>30124</v>
       </c>
       <c r="B231" s="0">
         <v>0.001</v>
@@ -93476,12 +95278,12 @@
       </c>
       <c r="D231" s="0"/>
       <c r="E231" s="0" t="s">
-        <v>29841</v>
+        <v>30441</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>29525</v>
+        <v>30125</v>
       </c>
       <c r="B232" s="0">
         <v>0</v>
@@ -93491,12 +95293,12 @@
       </c>
       <c r="D232" s="0"/>
       <c r="E232" s="0" t="s">
-        <v>29842</v>
+        <v>30442</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>29526</v>
+        <v>30126</v>
       </c>
       <c r="B233" s="0">
         <v>0.40000000000000002</v>
@@ -93506,12 +95308,12 @@
       </c>
       <c r="D233" s="0"/>
       <c r="E233" s="0" t="s">
-        <v>29843</v>
+        <v>30443</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>29527</v>
+        <v>30127</v>
       </c>
       <c r="B234" s="0">
         <v>0.10000000000000001</v>
@@ -93521,12 +95323,12 @@
       </c>
       <c r="D234" s="0"/>
       <c r="E234" s="0" t="s">
-        <v>29844</v>
+        <v>30444</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>29528</v>
+        <v>30128</v>
       </c>
       <c r="B235" s="0">
         <v>0.029999999999999999</v>
@@ -93536,12 +95338,12 @@
       </c>
       <c r="D235" s="0"/>
       <c r="E235" s="0" t="s">
-        <v>29845</v>
+        <v>30445</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>29529</v>
+        <v>30129</v>
       </c>
       <c r="B236" s="0">
         <v>0</v>
@@ -93551,12 +95353,12 @@
       </c>
       <c r="D236" s="0"/>
       <c r="E236" s="0" t="s">
-        <v>29846</v>
+        <v>30446</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>29530</v>
+        <v>30130</v>
       </c>
       <c r="B237" s="0">
         <v>0.65000000000000002</v>
@@ -93566,12 +95368,12 @@
       </c>
       <c r="D237" s="0"/>
       <c r="E237" s="0" t="s">
-        <v>29847</v>
+        <v>30447</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>29531</v>
+        <v>30131</v>
       </c>
       <c r="B238" s="0">
         <v>0.80000000000000004</v>
@@ -93581,12 +95383,12 @@
       </c>
       <c r="D238" s="0"/>
       <c r="E238" s="0" t="s">
-        <v>29848</v>
+        <v>30448</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>29532</v>
+        <v>30132</v>
       </c>
       <c r="B239" s="0">
         <v>1</v>
@@ -93596,12 +95398,12 @@
       </c>
       <c r="D239" s="0"/>
       <c r="E239" s="0" t="s">
-        <v>29849</v>
+        <v>30449</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>29533</v>
+        <v>30133</v>
       </c>
       <c r="B240" s="0">
         <v>0.80000000000000004</v>
@@ -93611,12 +95413,12 @@
       </c>
       <c r="D240" s="0"/>
       <c r="E240" s="0" t="s">
-        <v>29850</v>
+        <v>30450</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>29534</v>
+        <v>30134</v>
       </c>
       <c r="B241" s="0">
         <v>0.80000000000000004</v>
@@ -93626,12 +95428,12 @@
       </c>
       <c r="D241" s="0"/>
       <c r="E241" s="0" t="s">
-        <v>29851</v>
+        <v>30451</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>29535</v>
+        <v>30135</v>
       </c>
       <c r="B242" s="0">
         <v>0</v>
@@ -93641,12 +95443,12 @@
       </c>
       <c r="D242" s="0"/>
       <c r="E242" s="0" t="s">
-        <v>29852</v>
+        <v>30452</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>29536</v>
+        <v>30136</v>
       </c>
       <c r="B243" s="0">
         <v>0.80000000000000004</v>
@@ -93656,12 +95458,12 @@
       </c>
       <c r="D243" s="0"/>
       <c r="E243" s="0" t="s">
-        <v>29853</v>
+        <v>30453</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>29537</v>
+        <v>30137</v>
       </c>
       <c r="B244" s="0">
         <v>0.90000000000000002</v>
@@ -93671,12 +95473,12 @@
       </c>
       <c r="D244" s="0"/>
       <c r="E244" s="0" t="s">
-        <v>29854</v>
+        <v>30454</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>29538</v>
+        <v>30138</v>
       </c>
       <c r="B245" s="0">
         <v>0.012500000000000001</v>
@@ -93686,12 +95488,12 @@
       </c>
       <c r="D245" s="0"/>
       <c r="E245" s="0" t="s">
-        <v>29855</v>
+        <v>30455</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>29539</v>
+        <v>30139</v>
       </c>
       <c r="B246" s="0">
         <v>0.0070000000000000001</v>
@@ -93701,12 +95503,12 @@
       </c>
       <c r="D246" s="0"/>
       <c r="E246" s="0" t="s">
-        <v>29855</v>
+        <v>30455</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>29540</v>
+        <v>30140</v>
       </c>
       <c r="B247" s="0">
         <v>0.75</v>
@@ -93716,12 +95518,12 @@
       </c>
       <c r="D247" s="0"/>
       <c r="E247" s="0" t="s">
-        <v>29855</v>
+        <v>30455</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>29541</v>
+        <v>30141</v>
       </c>
       <c r="B248" s="0">
         <v>-0.01</v>
@@ -93731,12 +95533,12 @@
       </c>
       <c r="D248" s="0"/>
       <c r="E248" s="0" t="s">
-        <v>29855</v>
+        <v>30455</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>29542</v>
+        <v>30142</v>
       </c>
       <c r="B249" s="0">
         <v>0.00125</v>
@@ -93746,12 +95548,12 @@
       </c>
       <c r="D249" s="0"/>
       <c r="E249" s="0" t="s">
-        <v>29855</v>
+        <v>30455</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>29543</v>
+        <v>30143</v>
       </c>
       <c r="B250" s="0">
         <v>-10</v>
@@ -93761,12 +95563,12 @@
       </c>
       <c r="D250" s="0"/>
       <c r="E250" s="0" t="s">
-        <v>29856</v>
+        <v>30456</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>29544</v>
+        <v>30144</v>
       </c>
       <c r="B251" s="0">
         <v>0.69999999999999996</v>
@@ -93779,7 +95581,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>29545</v>
+        <v>30145</v>
       </c>
       <c r="B252" s="0">
         <v>0.12</v>
@@ -93789,12 +95591,12 @@
       </c>
       <c r="D252" s="0"/>
       <c r="E252" s="0" t="s">
-        <v>29857</v>
+        <v>30457</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>29546</v>
+        <v>30146</v>
       </c>
       <c r="B253" s="0">
         <v>0.65000000000000002</v>
@@ -93804,12 +95606,12 @@
       </c>
       <c r="D253" s="0"/>
       <c r="E253" s="0" t="s">
-        <v>29858</v>
+        <v>30458</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>29547</v>
+        <v>30147</v>
       </c>
       <c r="B254" s="0"/>
       <c r="C254" s="0">
@@ -93817,12 +95619,12 @@
       </c>
       <c r="D254" s="0"/>
       <c r="E254" s="0" t="s">
-        <v>29859</v>
+        <v>30459</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>29548</v>
+        <v>30148</v>
       </c>
       <c r="B255" s="0">
         <v>0.050000000000000003</v>
@@ -93832,12 +95634,12 @@
       </c>
       <c r="D255" s="0"/>
       <c r="E255" s="0" t="s">
-        <v>29860</v>
+        <v>30460</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>29549</v>
+        <v>30149</v>
       </c>
       <c r="B256" s="0">
         <v>0</v>
@@ -93847,12 +95649,12 @@
       </c>
       <c r="D256" s="0"/>
       <c r="E256" s="0" t="s">
-        <v>29861</v>
+        <v>30461</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>29550</v>
+        <v>30150</v>
       </c>
       <c r="B257" s="0">
         <v>0.5</v>
@@ -93862,12 +95664,12 @@
       </c>
       <c r="D257" s="0"/>
       <c r="E257" s="0" t="s">
-        <v>29862</v>
+        <v>30462</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>29551</v>
+        <v>30151</v>
       </c>
       <c r="B258" s="0">
         <v>0</v>
@@ -93877,12 +95679,12 @@
       </c>
       <c r="D258" s="0"/>
       <c r="E258" s="0" t="s">
-        <v>29863</v>
+        <v>30463</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>29552</v>
+        <v>30152</v>
       </c>
       <c r="B259" s="0">
         <v>0.012500000000000001</v>
@@ -93892,12 +95694,12 @@
       </c>
       <c r="D259" s="0"/>
       <c r="E259" s="0" t="s">
-        <v>29864</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>29553</v>
+        <v>30153</v>
       </c>
       <c r="B260" s="0">
         <v>0.014999999999999999</v>
@@ -93907,12 +95709,12 @@
       </c>
       <c r="D260" s="0"/>
       <c r="E260" s="0" t="s">
-        <v>29865</v>
+        <v>30465</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>29554</v>
+        <v>30154</v>
       </c>
       <c r="B261" s="0">
         <v>0.29999999999999999</v>
@@ -93922,12 +95724,12 @@
       </c>
       <c r="D261" s="0"/>
       <c r="E261" s="0" t="s">
-        <v>29866</v>
+        <v>30466</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>29555</v>
+        <v>30155</v>
       </c>
       <c r="B262" s="0">
         <v>-0.0025000000000000005</v>
@@ -93937,12 +95739,12 @@
       </c>
       <c r="D262" s="0"/>
       <c r="E262" s="0" t="s">
-        <v>29867</v>
+        <v>30467</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>29556</v>
+        <v>30156</v>
       </c>
       <c r="B263" s="0">
         <v>0.035000000000000003</v>
@@ -93952,12 +95754,12 @@
       </c>
       <c r="D263" s="0"/>
       <c r="E263" s="0" t="s">
-        <v>29868</v>
+        <v>30468</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>29557</v>
+        <v>30157</v>
       </c>
       <c r="B264" s="0">
         <v>0.69999999999999996</v>
@@ -93967,12 +95769,12 @@
       </c>
       <c r="D264" s="0"/>
       <c r="E264" s="0" t="s">
-        <v>29869</v>
+        <v>30469</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>29558</v>
+        <v>30158</v>
       </c>
       <c r="B265" s="0">
         <v>0.01</v>
@@ -93985,7 +95787,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>29559</v>
+        <v>30159</v>
       </c>
       <c r="B266" s="0">
         <v>0</v>
@@ -93995,12 +95797,12 @@
       </c>
       <c r="D266" s="0"/>
       <c r="E266" s="0" t="s">
-        <v>29870</v>
+        <v>30470</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>29560</v>
+        <v>30160</v>
       </c>
       <c r="B267" s="0">
         <v>0.5</v>
@@ -94010,12 +95812,12 @@
       </c>
       <c r="D267" s="0"/>
       <c r="E267" s="0" t="s">
-        <v>29871</v>
+        <v>30471</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>29561</v>
+        <v>30161</v>
       </c>
       <c r="B268" s="0">
         <v>0.10000000000000001</v>
@@ -94025,12 +95827,12 @@
       </c>
       <c r="D268" s="0"/>
       <c r="E268" s="0" t="s">
-        <v>29872</v>
+        <v>30472</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>29562</v>
+        <v>30162</v>
       </c>
       <c r="B269" s="0">
         <v>0.5</v>
@@ -94040,12 +95842,12 @@
       </c>
       <c r="D269" s="0"/>
       <c r="E269" s="0" t="s">
-        <v>29873</v>
+        <v>30473</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>29563</v>
+        <v>30163</v>
       </c>
       <c r="B270" s="0"/>
       <c r="C270" s="0">
@@ -94053,12 +95855,12 @@
       </c>
       <c r="D270" s="0"/>
       <c r="E270" s="0" t="s">
-        <v>29874</v>
+        <v>30474</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>29564</v>
+        <v>30164</v>
       </c>
       <c r="B271" s="0">
         <v>0.90000000000000002</v>
@@ -94071,7 +95873,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>29565</v>
+        <v>30165</v>
       </c>
       <c r="B272" s="0">
         <v>0.5</v>
@@ -94081,12 +95883,12 @@
       </c>
       <c r="D272" s="0"/>
       <c r="E272" s="0" t="s">
-        <v>29875</v>
+        <v>30475</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>29566</v>
+        <v>30166</v>
       </c>
       <c r="B273" s="0">
         <v>-0.0050000000000000001</v>
@@ -94096,12 +95898,12 @@
       </c>
       <c r="D273" s="0"/>
       <c r="E273" s="0" t="s">
-        <v>29876</v>
+        <v>30476</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>29567</v>
+        <v>30167</v>
       </c>
       <c r="B274" s="0">
         <v>0.5</v>
@@ -94111,12 +95913,12 @@
       </c>
       <c r="D274" s="0"/>
       <c r="E274" s="0" t="s">
-        <v>29877</v>
+        <v>30477</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>29568</v>
+        <v>30168</v>
       </c>
       <c r="B275" s="0">
         <v>0.0025000000000000001</v>
@@ -94126,12 +95928,12 @@
       </c>
       <c r="D275" s="0"/>
       <c r="E275" s="0" t="s">
-        <v>29878</v>
+        <v>30478</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>29569</v>
+        <v>30169</v>
       </c>
       <c r="B276" s="0">
         <v>0.22</v>
@@ -94141,12 +95943,12 @@
       </c>
       <c r="D276" s="0"/>
       <c r="E276" s="0" t="s">
-        <v>29879</v>
+        <v>30479</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>29570</v>
+        <v>30170</v>
       </c>
       <c r="B277" s="0">
         <v>0.01</v>
@@ -94156,12 +95958,12 @@
       </c>
       <c r="D277" s="0"/>
       <c r="E277" s="0" t="s">
-        <v>29880</v>
+        <v>30480</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>29571</v>
+        <v>30171</v>
       </c>
       <c r="B278" s="0">
         <v>0.94999999999999996</v>
@@ -94171,12 +95973,12 @@
       </c>
       <c r="D278" s="0"/>
       <c r="E278" s="0" t="s">
-        <v>29881</v>
+        <v>30481</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>29572</v>
+        <v>30172</v>
       </c>
       <c r="B279" s="0">
         <v>0.14999999999999999</v>
@@ -94186,12 +95988,12 @@
       </c>
       <c r="D279" s="0"/>
       <c r="E279" s="0" t="s">
-        <v>29882</v>
+        <v>30482</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>29573</v>
+        <v>30173</v>
       </c>
       <c r="B280" s="0">
         <v>0.96999999999999997</v>
@@ -94201,12 +96003,12 @@
       </c>
       <c r="D280" s="0"/>
       <c r="E280" s="0" t="s">
-        <v>29883</v>
+        <v>30483</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>29574</v>
+        <v>30174</v>
       </c>
       <c r="B281" s="0">
         <v>0</v>
@@ -94216,12 +96018,12 @@
       </c>
       <c r="D281" s="0"/>
       <c r="E281" s="0" t="s">
-        <v>29884</v>
+        <v>30484</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>29575</v>
+        <v>30175</v>
       </c>
       <c r="B282" s="0">
         <v>0</v>
@@ -94231,12 +96033,12 @@
       </c>
       <c r="D282" s="0"/>
       <c r="E282" s="0" t="s">
-        <v>29885</v>
+        <v>30485</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>29576</v>
+        <v>30176</v>
       </c>
       <c r="B283" s="0">
         <v>0.059999999999999998</v>
@@ -94246,12 +96048,12 @@
       </c>
       <c r="D283" s="0"/>
       <c r="E283" s="0" t="s">
-        <v>29886</v>
+        <v>30486</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>29577</v>
+        <v>30177</v>
       </c>
       <c r="B284" s="0">
         <v>1</v>
@@ -94261,12 +96063,12 @@
       </c>
       <c r="D284" s="0"/>
       <c r="E284" s="0" t="s">
-        <v>29887</v>
+        <v>30487</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>29578</v>
+        <v>30178</v>
       </c>
       <c r="B285" s="0">
         <v>0.84999999999999998</v>
@@ -94276,12 +96078,12 @@
       </c>
       <c r="D285" s="0"/>
       <c r="E285" s="0" t="s">
-        <v>29888</v>
+        <v>30488</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>29579</v>
+        <v>30179</v>
       </c>
       <c r="B286" s="0">
         <v>0.94999999999999996</v>
@@ -94291,12 +96093,12 @@
       </c>
       <c r="D286" s="0"/>
       <c r="E286" s="0" t="s">
-        <v>29889</v>
+        <v>30489</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>29580</v>
+        <v>30180</v>
       </c>
       <c r="B287" s="0">
         <v>0.050999999999999997</v>
@@ -94306,12 +96108,12 @@
       </c>
       <c r="D287" s="0"/>
       <c r="E287" s="0" t="s">
-        <v>29890</v>
+        <v>30490</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>29581</v>
+        <v>30181</v>
       </c>
       <c r="B288" s="0">
         <v>0.94999999999999996</v>
@@ -94321,12 +96123,12 @@
       </c>
       <c r="D288" s="0"/>
       <c r="E288" s="0" t="s">
-        <v>29891</v>
+        <v>30491</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>29582</v>
+        <v>30182</v>
       </c>
       <c r="B289" s="0">
         <v>0.93999999999999995</v>
@@ -94336,12 +96138,12 @@
       </c>
       <c r="D289" s="0"/>
       <c r="E289" s="0" t="s">
-        <v>29892</v>
+        <v>30492</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>29583</v>
+        <v>30183</v>
       </c>
       <c r="B290" s="0">
         <v>1</v>
@@ -94354,7 +96156,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>29584</v>
+        <v>30184</v>
       </c>
       <c r="B291" s="0">
         <v>0</v>
@@ -94363,10 +96165,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>29623</v>
+        <v>30223</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>29893</v>
+        <v>30493</v>
       </c>
     </row>
   </sheetData>
